--- a/AutosurveillanceTemplates/Comparatif.xlsx
+++ b/AutosurveillanceTemplates/Comparatif.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndhuy\AppData\Roaming\Microsoft\AddIns\AutosurveillanceTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BB3E37-1506-4BEF-AB7A-37FE28F0374E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C722C51D-CB80-4528-A5F0-85F5289FE611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11466" activeTab="1" xr2:uid="{A7F306DE-866C-4C6A-BADD-FDD34CC5E268}"/>
+    <workbookView xWindow="-28920" yWindow="3135" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A7F306DE-866C-4C6A-BADD-FDD34CC5E268}"/>
   </bookViews>
   <sheets>
     <sheet name="SeuilsComparaison-EMT" sheetId="1" r:id="rId1"/>
@@ -247,9 +247,6 @@
     </r>
   </si>
   <si>
-    <t>Localisation</t>
-  </si>
-  <si>
     <t>Date du comparatif</t>
   </si>
   <si>
@@ -294,6 +291,9 @@
   </si>
   <si>
     <t>Commentaires</t>
+  </si>
+  <si>
+    <t>Préleveur</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -1110,6 +1110,15 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1132,18 +1141,6 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -1282,42 +1279,14 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
@@ -1326,18 +1295,6 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="1" fontId="6" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -1347,30 +1304,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="1" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -1482,10 +1415,86 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1857,17 +1866,17 @@
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1"/>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="80"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -1883,716 +1892,716 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" s="14" customFormat="1" ht="89" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="1:11" s="11" customFormat="1" ht="89" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="13"/>
+      <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="14.7" x14ac:dyDescent="0.5">
       <c r="A5" s="1"/>
-      <c r="B5" s="15">
+      <c r="B5" s="12">
         <v>1313</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="14">
         <v>3</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="13">
         <v>15</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="15">
         <v>80</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="16">
         <v>0.3</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="17">
         <v>80</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="18">
         <v>0.2</v>
       </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="14.7" x14ac:dyDescent="0.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="22">
+      <c r="B6" s="19">
         <v>1314</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="21">
         <v>30</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="20">
         <v>80</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="22">
         <v>250</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="23">
         <v>0.2</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="22">
         <v>250</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="23">
         <v>0.1</v>
       </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" ht="14.7" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
-      <c r="B7" s="22">
+      <c r="B7" s="19">
         <v>6396</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="21">
         <v>10</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="20">
         <v>20</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="22">
         <v>150</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="23">
         <v>0.2</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="22">
         <v>150</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="23">
         <v>0.1</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" ht="12.7" x14ac:dyDescent="0.5">
       <c r="A8" s="1"/>
-      <c r="B8" s="22">
+      <c r="B8" s="19">
         <v>1305</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="21">
         <v>2</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="20">
         <v>15</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="22">
         <v>60</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="23">
         <v>0.3</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="22">
         <v>60</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="23">
         <v>0.2</v>
       </c>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" ht="12.7" x14ac:dyDescent="0.5">
       <c r="A9" s="1"/>
-      <c r="B9" s="27">
+      <c r="B9" s="24">
         <v>1319</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="21">
         <v>0.5</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="20">
         <v>6</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="25">
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="22">
         <v>6</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="23">
         <v>0.1</v>
       </c>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1" ht="12.7" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
-      <c r="B10" s="22">
+      <c r="B10" s="19">
         <v>1551</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="21">
         <v>1</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="20">
         <v>6</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="25">
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="22">
         <v>6</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="23">
         <v>0.2</v>
       </c>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" s="3" customFormat="1" ht="14.7" x14ac:dyDescent="0.5">
       <c r="A11" s="1"/>
-      <c r="B11" s="27">
+      <c r="B11" s="24">
         <v>1335</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="21">
         <v>0.5</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="20">
         <v>6</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="25">
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="22">
         <v>6</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="23">
         <v>0.1</v>
       </c>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" s="3" customFormat="1" ht="14.7" x14ac:dyDescent="0.5">
       <c r="A12" s="1"/>
-      <c r="B12" s="27">
+      <c r="B12" s="24">
         <v>1339</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="21">
         <v>0.05</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="20">
         <v>1</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="25">
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="22">
         <v>1</v>
       </c>
-      <c r="J12" s="26">
+      <c r="J12" s="23">
         <v>0.2</v>
       </c>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" s="3" customFormat="1" ht="14.7" x14ac:dyDescent="0.5">
       <c r="A13" s="1"/>
-      <c r="B13" s="27">
+      <c r="B13" s="24">
         <v>1340</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="21">
         <v>1</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="20">
         <v>5</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="25">
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="22">
         <v>5</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="23">
         <v>0.2</v>
       </c>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" s="3" customFormat="1" ht="12.7" x14ac:dyDescent="0.5">
       <c r="A14" s="1"/>
-      <c r="B14" s="22">
+      <c r="B14" s="19">
         <v>1350</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="21">
         <v>0.05</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="20">
         <v>1</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="25">
+      <c r="G14" s="25"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="22">
         <v>1</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="23">
         <v>0.2</v>
       </c>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" s="3" customFormat="1" ht="12.7" x14ac:dyDescent="0.5">
       <c r="A15" s="1"/>
-      <c r="B15" s="22">
+      <c r="B15" s="19">
         <v>1369</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="21">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="20">
         <v>0.5</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="22">
         <v>1</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="23">
         <v>0.6</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="22">
         <v>1</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="23">
         <v>0.3</v>
       </c>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" s="3" customFormat="1" ht="12.7" x14ac:dyDescent="0.5">
       <c r="A16" s="1"/>
-      <c r="B16" s="22">
+      <c r="B16" s="19">
         <v>1388</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="21">
         <v>1E-3</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="20">
         <v>0.5</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="22">
         <v>1</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="23">
         <v>0.6</v>
       </c>
-      <c r="I16" s="25">
+      <c r="I16" s="22">
         <v>1</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="23">
         <v>0.3</v>
       </c>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" s="3" customFormat="1" ht="12.7" x14ac:dyDescent="0.5">
       <c r="A17" s="1"/>
-      <c r="B17" s="22">
+      <c r="B17" s="19">
         <v>1389</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="21">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="20">
         <v>0.5</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="22">
         <v>1</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="23">
         <v>0.6</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17" s="22">
         <v>1</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="23">
         <v>0.3</v>
       </c>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" s="3" customFormat="1" ht="12.7" x14ac:dyDescent="0.5">
       <c r="A18" s="1"/>
-      <c r="B18" s="22">
+      <c r="B18" s="19">
         <v>1392</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="21">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="20">
         <v>0.5</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="22">
         <v>1</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="23">
         <v>0.6</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I18" s="22">
         <v>1</v>
       </c>
-      <c r="J18" s="26">
+      <c r="J18" s="23">
         <v>0.3</v>
       </c>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" s="3" customFormat="1" ht="12.7" x14ac:dyDescent="0.5">
       <c r="A19" s="1"/>
-      <c r="B19" s="22">
+      <c r="B19" s="19">
         <v>1387</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="21">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="20">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G19" s="25">
+      <c r="G19" s="22">
         <v>0.01</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="23">
         <v>0.6</v>
       </c>
-      <c r="I19" s="25">
+      <c r="I19" s="22">
         <v>0.01</v>
       </c>
-      <c r="J19" s="26">
+      <c r="J19" s="23">
         <v>0.3</v>
       </c>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" s="3" customFormat="1" ht="12.7" x14ac:dyDescent="0.5">
       <c r="A20" s="1"/>
-      <c r="B20" s="22">
+      <c r="B20" s="19">
         <v>1386</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="21">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="20">
         <v>0.5</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="22">
         <v>1</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="23">
         <v>0.6</v>
       </c>
-      <c r="I20" s="25">
+      <c r="I20" s="22">
         <v>1</v>
       </c>
-      <c r="J20" s="26">
+      <c r="J20" s="23">
         <v>0.3</v>
       </c>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" s="3" customFormat="1" ht="12.7" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
-      <c r="B21" s="22">
+      <c r="B21" s="19">
         <v>1382</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="21">
         <v>2E-3</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="20">
         <v>0.5</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="22">
         <v>1</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H21" s="23">
         <v>0.6</v>
       </c>
-      <c r="I21" s="25">
+      <c r="I21" s="22">
         <v>1</v>
       </c>
-      <c r="J21" s="26">
+      <c r="J21" s="23">
         <v>0.3</v>
       </c>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" s="3" customFormat="1" ht="12.7" x14ac:dyDescent="0.5">
       <c r="A22" s="1"/>
-      <c r="B22" s="22">
+      <c r="B22" s="19">
         <v>1383</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="21">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="20">
         <v>0.5</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22" s="22">
         <v>1</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="23">
         <v>0.6</v>
       </c>
-      <c r="I22" s="25">
+      <c r="I22" s="22">
         <v>1</v>
       </c>
-      <c r="J22" s="26">
+      <c r="J22" s="23">
         <v>0.3</v>
       </c>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" s="3" customFormat="1" ht="12.7" x14ac:dyDescent="0.5">
       <c r="A23" s="1"/>
-      <c r="B23" s="22">
+      <c r="B23" s="19">
         <v>1106</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="21">
         <v>0.01</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="20">
         <v>0.05</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="22">
         <v>0.5</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="23">
         <v>0.6</v>
       </c>
-      <c r="I23" s="25">
+      <c r="I23" s="22">
         <v>0.5</v>
       </c>
-      <c r="J23" s="26">
+      <c r="J23" s="23">
         <v>0.3</v>
       </c>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" s="3" customFormat="1" ht="12.7" x14ac:dyDescent="0.5">
       <c r="A24" s="1"/>
-      <c r="B24" s="22">
+      <c r="B24" s="19">
         <v>1841</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="21">
         <v>0.3</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="20">
         <v>5</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="22">
         <v>15</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="23">
         <v>0.3</v>
       </c>
-      <c r="I24" s="25">
+      <c r="I24" s="22">
         <v>15</v>
       </c>
-      <c r="J24" s="26">
+      <c r="J24" s="23">
         <v>0.1</v>
       </c>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" s="3" customFormat="1" ht="12.7" x14ac:dyDescent="0.5">
       <c r="A25" s="1"/>
-      <c r="B25" s="22">
+      <c r="B25" s="19">
         <v>1798</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="23"/>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" s="3" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
-      <c r="B26" s="31">
+      <c r="B26" s="28">
         <v>1337</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="33">
+      <c r="E26" s="30">
         <v>5</v>
       </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="36"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="33"/>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" s="3" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37" t="s">
+      <c r="B27" s="34"/>
+      <c r="C27" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="41">
+      <c r="D27" s="35"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="38">
         <v>0.2</v>
       </c>
-      <c r="I27" s="40"/>
-      <c r="J27" s="41">
+      <c r="I27" s="37"/>
+      <c r="J27" s="38">
         <v>0.05</v>
       </c>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="1"/>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" s="3" customFormat="1" ht="14.35" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" s="1"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
       <c r="K29" s="1"/>
     </row>
   </sheetData>
@@ -2610,676 +2619,676 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A1" s="95"/>
-      <c r="B1" s="95"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="97"/>
+      <c r="A1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="77"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="99"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="47" t="s">
+      <c r="F2" s="83"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
+    </row>
+    <row r="3" spans="1:12" ht="27.35" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="44"/>
-    </row>
-    <row r="3" spans="1:12" ht="27.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="48" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="98" t="s">
+      <c r="F3" s="86"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="40"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="44"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="50" t="s">
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="40"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="44"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="50" t="s">
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="40"/>
+    </row>
+    <row r="6" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="40"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A7" s="87" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="44"/>
-    </row>
-    <row r="6" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="44"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A7" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="52" t="s">
+      <c r="C7" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="D7" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="E7" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="F7" s="93" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="54" t="s">
+      <c r="H7" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="44"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="40"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="59">
+      <c r="A8" s="88"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="45">
         <f>COUNT(G11:G32)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="60">
+      <c r="H8" s="46">
         <f>COUNTIF(H11:H32,"=oui")</f>
         <v>0</v>
       </c>
-      <c r="I8" s="43"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="61">
+      <c r="I8" s="39"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="47">
         <f>G8</f>
         <v>0</v>
       </c>
-      <c r="L8" s="61">
+      <c r="L8" s="47">
         <f>H8</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A9" s="56"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="62" t="s">
+      <c r="A9" s="88"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="43"/>
-      <c r="J9" s="44"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
     </row>
     <row r="10" spans="1:12" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="64"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="44"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="40"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="69">
+      <c r="B11" s="49">
         <f>VLOOKUP(A11, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
         <v>3</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="74" t="str">
+      <c r="C11" s="50"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="54" t="str">
         <f xml:space="preserve"> IF(E11&gt;0,(C11-E11)/E11,"-")</f>
         <v>-</v>
       </c>
-      <c r="H11" s="75"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="44"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="40"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="69">
+      <c r="B12" s="49">
         <f>VLOOKUP(A12, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
         <v>30</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="74" t="str">
-        <f t="shared" ref="G12:G37" si="0" xml:space="preserve"> IF(E12&gt;0,(C12-E12)/E12,"-")</f>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="54" t="str">
+        <f t="shared" ref="G12:G29" si="0" xml:space="preserve"> IF(E12&gt;0,(C12-E12)/E12,"-")</f>
         <v>-</v>
       </c>
-      <c r="H12" s="79"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="44"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="69">
+      <c r="B13" s="49">
         <f>VLOOKUP(A13, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
         <v>10</v>
       </c>
-      <c r="C13" s="80"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="74" t="str">
+      <c r="C13" s="60"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="54" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="H13" s="79"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="44"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="69">
+      <c r="B14" s="49">
         <f>VLOOKUP(A14, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
         <v>2</v>
       </c>
-      <c r="C14" s="80"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="74" t="str">
+      <c r="C14" s="60"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="54" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="H14" s="79"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="44"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="69">
+      <c r="B15" s="49">
         <f>VLOOKUP(A15, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
         <v>0.5</v>
       </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="74" t="str">
+      <c r="C15" s="60"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="54" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="H15" s="79"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="44"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="40"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A16" s="76" t="s">
+      <c r="A16" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="69">
+      <c r="B16" s="49">
         <f>VLOOKUP(A16, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
         <v>1</v>
       </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="74" t="str">
+      <c r="C16" s="60"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="54" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="H16" s="79"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="44"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="40"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="69">
+      <c r="B17" s="49">
         <f>VLOOKUP(A17, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
         <v>0.5</v>
       </c>
-      <c r="C17" s="80"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="74" t="str">
+      <c r="C17" s="60"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="54" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="H17" s="79"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="44"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="40"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A18" s="82" t="s">
+      <c r="A18" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="69">
+      <c r="B18" s="49">
         <f>VLOOKUP(A18, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="C18" s="80"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="74" t="str">
+      <c r="C18" s="60"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="54" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="H18" s="79"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="44"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A19" s="82" t="s">
+      <c r="A19" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="69">
+      <c r="B19" s="49">
         <f>VLOOKUP(A19, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
         <v>1</v>
       </c>
-      <c r="C19" s="80"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="74" t="str">
+      <c r="C19" s="60"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="54" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="H19" s="79"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="44"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="40"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="69">
+      <c r="B20" s="49">
         <f>VLOOKUP(A20, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="C20" s="80"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="74" t="str">
+      <c r="C20" s="60"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="54" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="H20" s="79"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="44"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="40"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A21" s="76" t="s">
+      <c r="A21" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="69">
+      <c r="B21" s="49">
         <f>VLOOKUP(A21, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C21" s="80"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="74" t="str">
+      <c r="C21" s="60"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="54" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="H21" s="79"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="44"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="40"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="69">
+      <c r="B22" s="49">
         <f>VLOOKUP(A22, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
         <v>1E-3</v>
       </c>
-      <c r="C22" s="80"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="74" t="str">
+      <c r="C22" s="60"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="54" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="H22" s="79"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="44"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="40"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="69">
+      <c r="B23" s="49">
         <f>VLOOKUP(A23, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C23" s="80"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="74" t="str">
+      <c r="C23" s="60"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="54" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="H23" s="79"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="44"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="40"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="69">
+      <c r="B24" s="49">
         <f>VLOOKUP(A24, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C24" s="80"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="74" t="str">
+      <c r="C24" s="60"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="54" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="H24" s="79"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="44"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="40"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A25" s="76" t="s">
+      <c r="A25" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="69">
+      <c r="B25" s="49">
         <f>VLOOKUP(A25, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="C25" s="80"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="74" t="str">
+      <c r="C25" s="60"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="54" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="H25" s="79"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="44"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="40"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A26" s="76" t="s">
+      <c r="A26" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="69">
+      <c r="B26" s="49">
         <f>VLOOKUP(A26, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C26" s="84"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="74" t="str">
+      <c r="C26" s="64"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="54" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="H26" s="79"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="44"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="40"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A27" s="76" t="s">
+      <c r="A27" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="69">
+      <c r="B27" s="49">
         <f>VLOOKUP(A27, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
         <v>2E-3</v>
       </c>
-      <c r="C27" s="84"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="74" t="str">
+      <c r="C27" s="64"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="54" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="H27" s="79"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="44"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="40"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="69">
+      <c r="B28" s="49">
         <f>VLOOKUP(A28, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C28" s="84"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="74" t="str">
+      <c r="C28" s="64"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="54" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="H28" s="79"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="44"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="40"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A29" s="76" t="s">
+      <c r="A29" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="69">
+      <c r="B29" s="49">
         <f>VLOOKUP(A29, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="C29" s="84"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="74" t="str">
+      <c r="C29" s="64"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="54" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="H29" s="79"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="44"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="40"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A30" s="76" t="s">
+      <c r="A30" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="69">
+      <c r="B30" s="49">
         <f>VLOOKUP(A30, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
         <v>0.3</v>
       </c>
-      <c r="C30" s="84"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="44"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="40"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A31" s="76" t="s">
+      <c r="A31" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="69">
+      <c r="B31" s="49">
         <f>VLOOKUP(A31, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="C31" s="84"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="44"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="40"/>
     </row>
     <row r="32" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="88" t="s">
+      <c r="A32" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="69">
+      <c r="B32" s="49">
         <f>VLOOKUP(A32, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
         <v>5</v>
       </c>
-      <c r="C32" s="89"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="93" t="str">
-        <f t="shared" ref="G32:G37" si="1" xml:space="preserve"> IF(E32&gt;0,(C32-E32)/E32,"-")</f>
+      <c r="C32" s="69"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="73" t="str">
+        <f t="shared" ref="G32" si="1" xml:space="preserve"> IF(E32&gt;0,(C32-E32)/E32,"-")</f>
         <v>-</v>
       </c>
-      <c r="H32" s="94"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="44"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="40"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="44"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="40"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A34" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="44"/>
+      <c r="A34" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="40"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A35" s="46"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="44"/>
+      <c r="A35" s="84"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="40"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A36" s="46"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="44"/>
+      <c r="A36" s="84"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="40"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="44"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
     <mergeCell ref="A35:H36"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
@@ -3297,6 +3306,7 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <conditionalFormatting sqref="F11:F32">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">

--- a/AutosurveillanceTemplates/Comparatif.xlsx
+++ b/AutosurveillanceTemplates/Comparatif.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndhuy\AppData\Roaming\Microsoft\AddIns\AutosurveillanceTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C722C51D-CB80-4528-A5F0-85F5289FE611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F444B865-2AFB-4C37-BF82-A1A9DF9FC4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="3135" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A7F306DE-866C-4C6A-BADD-FDD34CC5E268}"/>
   </bookViews>
@@ -443,7 +443,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -1120,6 +1120,30 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1127,7 +1151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1384,10 +1408,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
@@ -1403,10 +1423,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="48" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1431,71 +1447,83 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1842,8 +1870,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1866,17 +1894,17 @@
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1"/>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="80"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="78"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -2578,30 +2606,30 @@
     </row>
     <row r="28" spans="1:11" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="1"/>
-      <c r="B28" s="81" t="s">
+      <c r="B28" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" s="3" customFormat="1" ht="14.35" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" s="1"/>
-      <c r="B29" s="81"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
       <c r="K29" s="1"/>
     </row>
   </sheetData>
@@ -2619,51 +2647,51 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H32" sqref="A7:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A1" s="75"/>
-      <c r="B1" s="75"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="77"/>
+      <c r="A1" s="73"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="75"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="97"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="83"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
       <c r="I2" s="39"/>
       <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:12" ht="27.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="86" t="s">
+      <c r="B3" s="95"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="86"/>
+      <c r="F3" s="96"/>
       <c r="G3" s="39"/>
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
@@ -2678,8 +2706,8 @@
       <c r="F4" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
       <c r="I4" s="39"/>
       <c r="J4" s="40"/>
     </row>
@@ -2692,8 +2720,8 @@
       <c r="F5" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
       <c r="I5" s="39"/>
       <c r="J5" s="40"/>
     </row>
@@ -2710,22 +2738,22 @@
       <c r="J6" s="40"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="93" t="s">
+      <c r="F7" s="87" t="s">
         <v>47</v>
       </c>
       <c r="G7" s="43" t="s">
@@ -2738,12 +2766,12 @@
       <c r="J7" s="40"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A8" s="88"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="94"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="88"/>
       <c r="G8" s="45">
         <f>COUNT(G11:G32)</f>
         <v>0</v>
@@ -2764,30 +2792,30 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A9" s="88"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="96" t="s">
+      <c r="A9" s="82"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="97" t="s">
+      <c r="H9" s="91" t="s">
         <v>52</v>
       </c>
       <c r="I9" s="39"/>
       <c r="J9" s="40"/>
     </row>
     <row r="10" spans="1:12" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="89"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="98"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="92"/>
       <c r="I10" s="39"/>
       <c r="J10" s="40"/>
     </row>
@@ -2804,8 +2832,8 @@
       <c r="E11" s="52"/>
       <c r="F11" s="53"/>
       <c r="G11" s="54" t="str">
-        <f xml:space="preserve"> IF(E11&gt;0,(C11-E11)/E11,"-")</f>
-        <v>-</v>
+        <f>IF(OR(E11="",C11=""),"",IF(ISERROR(VLOOKUP(A11,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E11)=TRUE,SUBSTITUTE(E11,"&lt;","",1)*1,E11)&gt;VLOOKUP(A11,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C11)=TRUE,SUBSTITUTE(C11,"&lt;","",1)*1,C11)&gt;VLOOKUP(A11,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C11)=TRUE,SUBSTITUTE(C11,"&lt;","",1)*1,C11)-((IF(ISTEXT(C11)=TRUE,SUBSTITUTE(C11,"&lt;","",1)*1,C11)+IF(ISTEXT(E11)=TRUE,SUBSTITUTE(E11,"&lt;","",1)*1,E11))/2))/((IF(ISTEXT(C11)=TRUE,SUBSTITUTE(C11,"&lt;","",1)*1,C11)+IF(ISTEXT(E11)=TRUE,SUBSTITUTE(E11,"&lt;","",1),E11))/2),"-")))</f>
+        <v/>
       </c>
       <c r="H11" s="55"/>
       <c r="I11" s="39"/>
@@ -2824,8 +2852,8 @@
       <c r="E12" s="57"/>
       <c r="F12" s="58"/>
       <c r="G12" s="54" t="str">
-        <f t="shared" ref="G12:G29" si="0" xml:space="preserve"> IF(E12&gt;0,(C12-E12)/E12,"-")</f>
-        <v>-</v>
+        <f>IF(OR(E12="",C12=""),"",IF(ISERROR(VLOOKUP(A12,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E12)=TRUE,SUBSTITUTE(E12,"&lt;","",1)*1,E12)&gt;VLOOKUP(A12,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C12)=TRUE,SUBSTITUTE(C12,"&lt;","",1)*1,C12)&gt;VLOOKUP(A12,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C12)=TRUE,SUBSTITUTE(C12,"&lt;","",1)*1,C12)-((IF(ISTEXT(C12)=TRUE,SUBSTITUTE(C12,"&lt;","",1)*1,C12)+IF(ISTEXT(E12)=TRUE,SUBSTITUTE(E12,"&lt;","",1)*1,E12))/2))/((IF(ISTEXT(C12)=TRUE,SUBSTITUTE(C12,"&lt;","",1)*1,C12)+IF(ISTEXT(E12)=TRUE,SUBSTITUTE(E12,"&lt;","",1),E12))/2),"-")))</f>
+        <v/>
       </c>
       <c r="H12" s="59"/>
       <c r="I12" s="39"/>
@@ -2844,8 +2872,8 @@
       <c r="E13" s="61"/>
       <c r="F13" s="58"/>
       <c r="G13" s="54" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f>IF(OR(E13="",C13=""),"",IF(ISERROR(VLOOKUP(A13,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E13)=TRUE,SUBSTITUTE(E13,"&lt;","",1)*1,E13)&gt;VLOOKUP(A13,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C13)=TRUE,SUBSTITUTE(C13,"&lt;","",1)*1,C13)&gt;VLOOKUP(A13,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C13)=TRUE,SUBSTITUTE(C13,"&lt;","",1)*1,C13)-((IF(ISTEXT(C13)=TRUE,SUBSTITUTE(C13,"&lt;","",1)*1,C13)+IF(ISTEXT(E13)=TRUE,SUBSTITUTE(E13,"&lt;","",1)*1,E13))/2))/((IF(ISTEXT(C13)=TRUE,SUBSTITUTE(C13,"&lt;","",1)*1,C13)+IF(ISTEXT(E13)=TRUE,SUBSTITUTE(E13,"&lt;","",1),E13))/2),"-")))</f>
+        <v/>
       </c>
       <c r="H13" s="59"/>
       <c r="I13" s="39"/>
@@ -2864,8 +2892,8 @@
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
       <c r="G14" s="54" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f>IF(OR(E14="",C14=""),"",IF(ISERROR(VLOOKUP(A14,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E14)=TRUE,SUBSTITUTE(E14,"&lt;","",1)*1,E14)&gt;VLOOKUP(A14,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C14)=TRUE,SUBSTITUTE(C14,"&lt;","",1)*1,C14)&gt;VLOOKUP(A14,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C14)=TRUE,SUBSTITUTE(C14,"&lt;","",1)*1,C14)-((IF(ISTEXT(C14)=TRUE,SUBSTITUTE(C14,"&lt;","",1)*1,C14)+IF(ISTEXT(E14)=TRUE,SUBSTITUTE(E14,"&lt;","",1)*1,E14))/2))/((IF(ISTEXT(C14)=TRUE,SUBSTITUTE(C14,"&lt;","",1)*1,C14)+IF(ISTEXT(E14)=TRUE,SUBSTITUTE(E14,"&lt;","",1),E14))/2),"-")))</f>
+        <v/>
       </c>
       <c r="H14" s="59"/>
       <c r="I14" s="39"/>
@@ -2884,8 +2912,8 @@
       <c r="E15" s="57"/>
       <c r="F15" s="58"/>
       <c r="G15" s="54" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f>IF(OR(E15="",C15=""),"",IF(ISERROR(VLOOKUP(A15,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E15)=TRUE,SUBSTITUTE(E15,"&lt;","",1)*1,E15)&gt;VLOOKUP(A15,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C15)=TRUE,SUBSTITUTE(C15,"&lt;","",1)*1,C15)&gt;VLOOKUP(A15,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C15)=TRUE,SUBSTITUTE(C15,"&lt;","",1)*1,C15)-((IF(ISTEXT(C15)=TRUE,SUBSTITUTE(C15,"&lt;","",1)*1,C15)+IF(ISTEXT(E15)=TRUE,SUBSTITUTE(E15,"&lt;","",1)*1,E15))/2))/((IF(ISTEXT(C15)=TRUE,SUBSTITUTE(C15,"&lt;","",1)*1,C15)+IF(ISTEXT(E15)=TRUE,SUBSTITUTE(E15,"&lt;","",1),E15))/2),"-")))</f>
+        <v/>
       </c>
       <c r="H15" s="59"/>
       <c r="I15" s="39"/>
@@ -2904,8 +2932,8 @@
       <c r="E16" s="57"/>
       <c r="F16" s="58"/>
       <c r="G16" s="54" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f>IF(OR(E16="",C16=""),"",IF(ISERROR(VLOOKUP(A16,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E16)=TRUE,SUBSTITUTE(E16,"&lt;","",1)*1,E16)&gt;VLOOKUP(A16,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C16)=TRUE,SUBSTITUTE(C16,"&lt;","",1)*1,C16)&gt;VLOOKUP(A16,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C16)=TRUE,SUBSTITUTE(C16,"&lt;","",1)*1,C16)-((IF(ISTEXT(C16)=TRUE,SUBSTITUTE(C16,"&lt;","",1)*1,C16)+IF(ISTEXT(E16)=TRUE,SUBSTITUTE(E16,"&lt;","",1)*1,E16))/2))/((IF(ISTEXT(C16)=TRUE,SUBSTITUTE(C16,"&lt;","",1)*1,C16)+IF(ISTEXT(E16)=TRUE,SUBSTITUTE(E16,"&lt;","",1),E16))/2),"-")))</f>
+        <v/>
       </c>
       <c r="H16" s="59"/>
       <c r="I16" s="39"/>
@@ -2924,8 +2952,8 @@
       <c r="E17" s="57"/>
       <c r="F17" s="58"/>
       <c r="G17" s="54" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f>IF(OR(E17="",C17=""),"",IF(ISERROR(VLOOKUP(A17,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E17)=TRUE,SUBSTITUTE(E17,"&lt;","",1)*1,E17)&gt;VLOOKUP(A17,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C17)=TRUE,SUBSTITUTE(C17,"&lt;","",1)*1,C17)&gt;VLOOKUP(A17,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C17)=TRUE,SUBSTITUTE(C17,"&lt;","",1)*1,C17)-((IF(ISTEXT(C17)=TRUE,SUBSTITUTE(C17,"&lt;","",1)*1,C17)+IF(ISTEXT(E17)=TRUE,SUBSTITUTE(E17,"&lt;","",1)*1,E17))/2))/((IF(ISTEXT(C17)=TRUE,SUBSTITUTE(C17,"&lt;","",1)*1,C17)+IF(ISTEXT(E17)=TRUE,SUBSTITUTE(E17,"&lt;","",1),E17))/2),"-")))</f>
+        <v/>
       </c>
       <c r="H17" s="59"/>
       <c r="I17" s="39"/>
@@ -2944,8 +2972,8 @@
       <c r="E18" s="57"/>
       <c r="F18" s="58"/>
       <c r="G18" s="54" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f>IF(OR(E18="",C18=""),"",IF(ISERROR(VLOOKUP(A18,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E18)=TRUE,SUBSTITUTE(E18,"&lt;","",1)*1,E18)&gt;VLOOKUP(A18,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C18)=TRUE,SUBSTITUTE(C18,"&lt;","",1)*1,C18)&gt;VLOOKUP(A18,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C18)=TRUE,SUBSTITUTE(C18,"&lt;","",1)*1,C18)-((IF(ISTEXT(C18)=TRUE,SUBSTITUTE(C18,"&lt;","",1)*1,C18)+IF(ISTEXT(E18)=TRUE,SUBSTITUTE(E18,"&lt;","",1)*1,E18))/2))/((IF(ISTEXT(C18)=TRUE,SUBSTITUTE(C18,"&lt;","",1)*1,C18)+IF(ISTEXT(E18)=TRUE,SUBSTITUTE(E18,"&lt;","",1),E18))/2),"-")))</f>
+        <v/>
       </c>
       <c r="H18" s="59"/>
       <c r="I18" s="39"/>
@@ -2964,8 +2992,8 @@
       <c r="E19" s="57"/>
       <c r="F19" s="58"/>
       <c r="G19" s="54" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f>IF(OR(E19="",C19=""),"",IF(ISERROR(VLOOKUP(A19,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E19)=TRUE,SUBSTITUTE(E19,"&lt;","",1)*1,E19)&gt;VLOOKUP(A19,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C19)=TRUE,SUBSTITUTE(C19,"&lt;","",1)*1,C19)&gt;VLOOKUP(A19,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C19)=TRUE,SUBSTITUTE(C19,"&lt;","",1)*1,C19)-((IF(ISTEXT(C19)=TRUE,SUBSTITUTE(C19,"&lt;","",1)*1,C19)+IF(ISTEXT(E19)=TRUE,SUBSTITUTE(E19,"&lt;","",1)*1,E19))/2))/((IF(ISTEXT(C19)=TRUE,SUBSTITUTE(C19,"&lt;","",1)*1,C19)+IF(ISTEXT(E19)=TRUE,SUBSTITUTE(E19,"&lt;","",1),E19))/2),"-")))</f>
+        <v/>
       </c>
       <c r="H19" s="59"/>
       <c r="I19" s="39"/>
@@ -2984,8 +3012,8 @@
       <c r="E20" s="57"/>
       <c r="F20" s="58"/>
       <c r="G20" s="54" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f>IF(OR(E20="",C20=""),"",IF(ISERROR(VLOOKUP(A20,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E20)=TRUE,SUBSTITUTE(E20,"&lt;","",1)*1,E20)&gt;VLOOKUP(A20,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C20)=TRUE,SUBSTITUTE(C20,"&lt;","",1)*1,C20)&gt;VLOOKUP(A20,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C20)=TRUE,SUBSTITUTE(C20,"&lt;","",1)*1,C20)-((IF(ISTEXT(C20)=TRUE,SUBSTITUTE(C20,"&lt;","",1)*1,C20)+IF(ISTEXT(E20)=TRUE,SUBSTITUTE(E20,"&lt;","",1)*1,E20))/2))/((IF(ISTEXT(C20)=TRUE,SUBSTITUTE(C20,"&lt;","",1)*1,C20)+IF(ISTEXT(E20)=TRUE,SUBSTITUTE(E20,"&lt;","",1),E20))/2),"-")))</f>
+        <v/>
       </c>
       <c r="H20" s="59"/>
       <c r="I20" s="39"/>
@@ -3004,8 +3032,8 @@
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
       <c r="G21" s="54" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f>IF(OR(E21="",C21=""),"",IF(ISERROR(VLOOKUP(A21,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E21)=TRUE,SUBSTITUTE(E21,"&lt;","",1)*1,E21)&gt;VLOOKUP(A21,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C21)=TRUE,SUBSTITUTE(C21,"&lt;","",1)*1,C21)&gt;VLOOKUP(A21,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C21)=TRUE,SUBSTITUTE(C21,"&lt;","",1)*1,C21)-((IF(ISTEXT(C21)=TRUE,SUBSTITUTE(C21,"&lt;","",1)*1,C21)+IF(ISTEXT(E21)=TRUE,SUBSTITUTE(E21,"&lt;","",1)*1,E21))/2))/((IF(ISTEXT(C21)=TRUE,SUBSTITUTE(C21,"&lt;","",1)*1,C21)+IF(ISTEXT(E21)=TRUE,SUBSTITUTE(E21,"&lt;","",1),E21))/2),"-")))</f>
+        <v/>
       </c>
       <c r="H21" s="59"/>
       <c r="I21" s="39"/>
@@ -3024,8 +3052,8 @@
       <c r="E22" s="57"/>
       <c r="F22" s="58"/>
       <c r="G22" s="54" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f>IF(OR(E22="",C22=""),"",IF(ISERROR(VLOOKUP(A22,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E22)=TRUE,SUBSTITUTE(E22,"&lt;","",1)*1,E22)&gt;VLOOKUP(A22,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C22)=TRUE,SUBSTITUTE(C22,"&lt;","",1)*1,C22)&gt;VLOOKUP(A22,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C22)=TRUE,SUBSTITUTE(C22,"&lt;","",1)*1,C22)-((IF(ISTEXT(C22)=TRUE,SUBSTITUTE(C22,"&lt;","",1)*1,C22)+IF(ISTEXT(E22)=TRUE,SUBSTITUTE(E22,"&lt;","",1)*1,E22))/2))/((IF(ISTEXT(C22)=TRUE,SUBSTITUTE(C22,"&lt;","",1)*1,C22)+IF(ISTEXT(E22)=TRUE,SUBSTITUTE(E22,"&lt;","",1),E22))/2),"-")))</f>
+        <v/>
       </c>
       <c r="H22" s="59"/>
       <c r="I22" s="39"/>
@@ -3044,8 +3072,8 @@
       <c r="E23" s="57"/>
       <c r="F23" s="58"/>
       <c r="G23" s="54" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f>IF(OR(E23="",C23=""),"",IF(ISERROR(VLOOKUP(A23,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E23)=TRUE,SUBSTITUTE(E23,"&lt;","",1)*1,E23)&gt;VLOOKUP(A23,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C23)=TRUE,SUBSTITUTE(C23,"&lt;","",1)*1,C23)&gt;VLOOKUP(A23,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C23)=TRUE,SUBSTITUTE(C23,"&lt;","",1)*1,C23)-((IF(ISTEXT(C23)=TRUE,SUBSTITUTE(C23,"&lt;","",1)*1,C23)+IF(ISTEXT(E23)=TRUE,SUBSTITUTE(E23,"&lt;","",1)*1,E23))/2))/((IF(ISTEXT(C23)=TRUE,SUBSTITUTE(C23,"&lt;","",1)*1,C23)+IF(ISTEXT(E23)=TRUE,SUBSTITUTE(E23,"&lt;","",1),E23))/2),"-")))</f>
+        <v/>
       </c>
       <c r="H23" s="59"/>
       <c r="I23" s="39"/>
@@ -3064,8 +3092,8 @@
       <c r="E24" s="57"/>
       <c r="F24" s="58"/>
       <c r="G24" s="54" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f>IF(OR(E24="",C24=""),"",IF(ISERROR(VLOOKUP(A24,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E24)=TRUE,SUBSTITUTE(E24,"&lt;","",1)*1,E24)&gt;VLOOKUP(A24,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C24)=TRUE,SUBSTITUTE(C24,"&lt;","",1)*1,C24)&gt;VLOOKUP(A24,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C24)=TRUE,SUBSTITUTE(C24,"&lt;","",1)*1,C24)-((IF(ISTEXT(C24)=TRUE,SUBSTITUTE(C24,"&lt;","",1)*1,C24)+IF(ISTEXT(E24)=TRUE,SUBSTITUTE(E24,"&lt;","",1)*1,E24))/2))/((IF(ISTEXT(C24)=TRUE,SUBSTITUTE(C24,"&lt;","",1)*1,C24)+IF(ISTEXT(E24)=TRUE,SUBSTITUTE(E24,"&lt;","",1),E24))/2),"-")))</f>
+        <v/>
       </c>
       <c r="H24" s="59"/>
       <c r="I24" s="39"/>
@@ -3084,8 +3112,8 @@
       <c r="E25" s="57"/>
       <c r="F25" s="58"/>
       <c r="G25" s="54" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f>IF(OR(E25="",C25=""),"",IF(ISERROR(VLOOKUP(A25,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E25)=TRUE,SUBSTITUTE(E25,"&lt;","",1)*1,E25)&gt;VLOOKUP(A25,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C25)=TRUE,SUBSTITUTE(C25,"&lt;","",1)*1,C25)&gt;VLOOKUP(A25,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C25)=TRUE,SUBSTITUTE(C25,"&lt;","",1)*1,C25)-((IF(ISTEXT(C25)=TRUE,SUBSTITUTE(C25,"&lt;","",1)*1,C25)+IF(ISTEXT(E25)=TRUE,SUBSTITUTE(E25,"&lt;","",1)*1,E25))/2))/((IF(ISTEXT(C25)=TRUE,SUBSTITUTE(C25,"&lt;","",1)*1,C25)+IF(ISTEXT(E25)=TRUE,SUBSTITUTE(E25,"&lt;","",1),E25))/2),"-")))</f>
+        <v/>
       </c>
       <c r="H25" s="59"/>
       <c r="I25" s="39"/>
@@ -3104,8 +3132,8 @@
       <c r="E26" s="66"/>
       <c r="F26" s="67"/>
       <c r="G26" s="54" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f>IF(OR(E26="",C26=""),"",IF(ISERROR(VLOOKUP(A26,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E26)=TRUE,SUBSTITUTE(E26,"&lt;","",1)*1,E26)&gt;VLOOKUP(A26,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C26)=TRUE,SUBSTITUTE(C26,"&lt;","",1)*1,C26)&gt;VLOOKUP(A26,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C26)=TRUE,SUBSTITUTE(C26,"&lt;","",1)*1,C26)-((IF(ISTEXT(C26)=TRUE,SUBSTITUTE(C26,"&lt;","",1)*1,C26)+IF(ISTEXT(E26)=TRUE,SUBSTITUTE(E26,"&lt;","",1)*1,E26))/2))/((IF(ISTEXT(C26)=TRUE,SUBSTITUTE(C26,"&lt;","",1)*1,C26)+IF(ISTEXT(E26)=TRUE,SUBSTITUTE(E26,"&lt;","",1),E26))/2),"-")))</f>
+        <v/>
       </c>
       <c r="H26" s="59"/>
       <c r="I26" s="39"/>
@@ -3124,8 +3152,8 @@
       <c r="E27" s="66"/>
       <c r="F27" s="67"/>
       <c r="G27" s="54" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f>IF(OR(E27="",C27=""),"",IF(ISERROR(VLOOKUP(A27,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E27)=TRUE,SUBSTITUTE(E27,"&lt;","",1)*1,E27)&gt;VLOOKUP(A27,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C27)=TRUE,SUBSTITUTE(C27,"&lt;","",1)*1,C27)&gt;VLOOKUP(A27,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C27)=TRUE,SUBSTITUTE(C27,"&lt;","",1)*1,C27)-((IF(ISTEXT(C27)=TRUE,SUBSTITUTE(C27,"&lt;","",1)*1,C27)+IF(ISTEXT(E27)=TRUE,SUBSTITUTE(E27,"&lt;","",1)*1,E27))/2))/((IF(ISTEXT(C27)=TRUE,SUBSTITUTE(C27,"&lt;","",1)*1,C27)+IF(ISTEXT(E27)=TRUE,SUBSTITUTE(E27,"&lt;","",1),E27))/2),"-")))</f>
+        <v/>
       </c>
       <c r="H27" s="59"/>
       <c r="I27" s="39"/>
@@ -3144,8 +3172,8 @@
       <c r="E28" s="66"/>
       <c r="F28" s="67"/>
       <c r="G28" s="54" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f>IF(OR(E28="",C28=""),"",IF(ISERROR(VLOOKUP(A28,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E28)=TRUE,SUBSTITUTE(E28,"&lt;","",1)*1,E28)&gt;VLOOKUP(A28,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C28)=TRUE,SUBSTITUTE(C28,"&lt;","",1)*1,C28)&gt;VLOOKUP(A28,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C28)=TRUE,SUBSTITUTE(C28,"&lt;","",1)*1,C28)-((IF(ISTEXT(C28)=TRUE,SUBSTITUTE(C28,"&lt;","",1)*1,C28)+IF(ISTEXT(E28)=TRUE,SUBSTITUTE(E28,"&lt;","",1)*1,E28))/2))/((IF(ISTEXT(C28)=TRUE,SUBSTITUTE(C28,"&lt;","",1)*1,C28)+IF(ISTEXT(E28)=TRUE,SUBSTITUTE(E28,"&lt;","",1),E28))/2),"-")))</f>
+        <v/>
       </c>
       <c r="H28" s="59"/>
       <c r="I28" s="39"/>
@@ -3164,8 +3192,8 @@
       <c r="E29" s="66"/>
       <c r="F29" s="67"/>
       <c r="G29" s="54" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f>IF(OR(E29="",C29=""),"",IF(ISERROR(VLOOKUP(A29,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E29)=TRUE,SUBSTITUTE(E29,"&lt;","",1)*1,E29)&gt;VLOOKUP(A29,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C29)=TRUE,SUBSTITUTE(C29,"&lt;","",1)*1,C29)&gt;VLOOKUP(A29,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C29)=TRUE,SUBSTITUTE(C29,"&lt;","",1)*1,C29)-((IF(ISTEXT(C29)=TRUE,SUBSTITUTE(C29,"&lt;","",1)*1,C29)+IF(ISTEXT(E29)=TRUE,SUBSTITUTE(E29,"&lt;","",1)*1,E29))/2))/((IF(ISTEXT(C29)=TRUE,SUBSTITUTE(C29,"&lt;","",1)*1,C29)+IF(ISTEXT(E29)=TRUE,SUBSTITUTE(E29,"&lt;","",1),E29))/2),"-")))</f>
+        <v/>
       </c>
       <c r="H29" s="59"/>
       <c r="I29" s="39"/>
@@ -3183,7 +3211,10 @@
       <c r="D30" s="65"/>
       <c r="E30" s="66"/>
       <c r="F30" s="67"/>
-      <c r="G30" s="54"/>
+      <c r="G30" s="54" t="str">
+        <f>IF(OR(E30="",C30=""),"",IF(ISERROR(VLOOKUP(A30,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E30)=TRUE,SUBSTITUTE(E30,"&lt;","",1)*1,E30)&gt;VLOOKUP(A30,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C30)=TRUE,SUBSTITUTE(C30,"&lt;","",1)*1,C30)&gt;VLOOKUP(A30,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C30)=TRUE,SUBSTITUTE(C30,"&lt;","",1)*1,C30)-((IF(ISTEXT(C30)=TRUE,SUBSTITUTE(C30,"&lt;","",1)*1,C30)+IF(ISTEXT(E30)=TRUE,SUBSTITUTE(E30,"&lt;","",1)*1,E30))/2))/((IF(ISTEXT(C30)=TRUE,SUBSTITUTE(C30,"&lt;","",1)*1,C30)+IF(ISTEXT(E30)=TRUE,SUBSTITUTE(E30,"&lt;","",1),E30))/2),"-")))</f>
+        <v/>
+      </c>
       <c r="H30" s="59"/>
       <c r="I30" s="39"/>
       <c r="J30" s="40"/>
@@ -3200,28 +3231,31 @@
       <c r="D31" s="65"/>
       <c r="E31" s="66"/>
       <c r="F31" s="67"/>
-      <c r="G31" s="54"/>
+      <c r="G31" s="54" t="str">
+        <f>IF(OR(E31="",C31=""),"",IF(ISERROR(VLOOKUP(A31,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E31)=TRUE,SUBSTITUTE(E31,"&lt;","",1)*1,E31)&gt;VLOOKUP(A31,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C31)=TRUE,SUBSTITUTE(C31,"&lt;","",1)*1,C31)&gt;VLOOKUP(A31,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C31)=TRUE,SUBSTITUTE(C31,"&lt;","",1)*1,C31)-((IF(ISTEXT(C31)=TRUE,SUBSTITUTE(C31,"&lt;","",1)*1,C31)+IF(ISTEXT(E31)=TRUE,SUBSTITUTE(E31,"&lt;","",1)*1,E31))/2))/((IF(ISTEXT(C31)=TRUE,SUBSTITUTE(C31,"&lt;","",1)*1,C31)+IF(ISTEXT(E31)=TRUE,SUBSTITUTE(E31,"&lt;","",1),E31))/2),"-")))</f>
+        <v/>
+      </c>
       <c r="H31" s="59"/>
       <c r="I31" s="39"/>
       <c r="J31" s="40"/>
     </row>
     <row r="32" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="49">
+      <c r="B32" s="99">
         <f>VLOOKUP(A32, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
         <v>5</v>
       </c>
-      <c r="C32" s="69"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="73" t="str">
-        <f t="shared" ref="G32" si="1" xml:space="preserve"> IF(E32&gt;0,(C32-E32)/E32,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="H32" s="74"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="100" t="str">
+        <f>IF(OR(E32="",C32=""),"",IF(ISERROR(VLOOKUP(A32,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E32)=TRUE,SUBSTITUTE(E32,"&lt;","",1)*1,E32)&gt;VLOOKUP(A32,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C32)=TRUE,SUBSTITUTE(C32,"&lt;","",1)*1,C32)&gt;VLOOKUP(A32,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C32)=TRUE,SUBSTITUTE(C32,"&lt;","",1)*1,C32)-((IF(ISTEXT(C32)=TRUE,SUBSTITUTE(C32,"&lt;","",1)*1,C32)+IF(ISTEXT(E32)=TRUE,SUBSTITUTE(E32,"&lt;","",1)*1,E32))/2))/((IF(ISTEXT(C32)=TRUE,SUBSTITUTE(C32,"&lt;","",1)*1,C32)+IF(ISTEXT(E32)=TRUE,SUBSTITUTE(E32,"&lt;","",1),E32))/2),"-")))</f>
+        <v/>
+      </c>
+      <c r="H32" s="72"/>
       <c r="I32" s="39"/>
       <c r="J32" s="40"/>
     </row>
@@ -3252,26 +3286,26 @@
       <c r="J34" s="40"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A35" s="84"/>
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="84"/>
+      <c r="A35" s="80"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="80"/>
       <c r="I35" s="39"/>
       <c r="J35" s="40"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A36" s="84"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84"/>
+      <c r="A36" s="80"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="80"/>
       <c r="I36" s="39"/>
       <c r="J36" s="40"/>
     </row>
@@ -3289,6 +3323,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A35:H36"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
@@ -3300,13 +3341,6 @@
     <mergeCell ref="F7:F10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <conditionalFormatting sqref="F11:F32">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">

--- a/AutosurveillanceTemplates/Comparatif.xlsx
+++ b/AutosurveillanceTemplates/Comparatif.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndhuy\AppData\Roaming\Microsoft\AddIns\AutosurveillanceTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F444B865-2AFB-4C37-BF82-A1A9DF9FC4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A22113-9D09-48E7-A57C-DF7B2923CBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3135" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A7F306DE-866C-4C6A-BADD-FDD34CC5E268}"/>
+    <workbookView xWindow="-28920" yWindow="3135" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SeuilsComparaison-EMT" sheetId="1" r:id="rId1"/>
-    <sheet name="Comparatif" sheetId="2" r:id="rId2"/>
+    <sheet name="Comparatif" sheetId="3" r:id="rId1"/>
+    <sheet name="SeuilsComparaison-EMT" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
     <author>tc={B4132B75-E79F-4C91-84CF-E3DED874F9F6}</author>
   </authors>
   <commentList>
-    <comment ref="J27" authorId="0" shapeId="0" xr:uid="{A526F31D-D7C8-4FD7-AB37-51B3258BD50C}">
+    <comment ref="J27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
   <si>
     <t xml:space="preserve"> COMPARATIF ANALYTIQUE : DEFINITION DES ECARTS MAXIMUM TOLERES (EMT)</t>
   </si>
@@ -247,38 +247,11 @@
     </r>
   </si>
   <si>
-    <t>Date du comparatif</t>
-  </si>
-  <si>
-    <t>Le comparatif est-il effectué à partir des prélévements d'une autre station ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si oui, préciser : </t>
-  </si>
-  <si>
-    <t>le code de la station</t>
-  </si>
-  <si>
-    <t>Nom de la station</t>
-  </si>
-  <si>
     <t>LQ
 en mg/l</t>
   </si>
   <si>
-    <t xml:space="preserve">Etablissement Concentration
-en mg/l </t>
-  </si>
-  <si>
     <t>COFRAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Labo
- de contrôle Concentration
-en mg/l </t>
-  </si>
-  <si>
-    <t>Nb Analyses</t>
   </si>
   <si>
     <t>Nb conformes</t>
@@ -290,20 +263,50 @@
     <t>Conformité</t>
   </si>
   <si>
-    <t>Commentaires</t>
+    <t>Informations sur le comparatif</t>
   </si>
   <si>
-    <t>Préleveur</t>
+    <t>Préleveur :</t>
+  </si>
+  <si>
+    <t>Date du comparatif :</t>
+  </si>
+  <si>
+    <t>Code de la station :</t>
+  </si>
+  <si>
+    <t>Nom de la station :</t>
+  </si>
+  <si>
+    <t>Le comparatif est-il effectué à partir des prélévements d'une autre station ? (si oui, précisez la station)</t>
+  </si>
+  <si>
+    <t>Résultats du comparatif</t>
+  </si>
+  <si>
+    <t>Laboratoire de contrôle</t>
+  </si>
+  <si>
+    <t>Laboratoire du MO/exploitant</t>
+  </si>
+  <si>
+    <t>NB analyses</t>
+  </si>
+  <si>
+    <t>COMMENTAIRES :</t>
+  </si>
+  <si>
+    <t>en g/l</t>
+  </si>
+  <si>
+    <t>(Dupliquer ce bloc en cas de comparatif multiple)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-  </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,34 +369,59 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color rgb="FFEE0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,7 +454,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,12 +484,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -750,12 +802,18 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -766,21 +824,6 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -790,23 +833,32 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -818,50 +870,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -873,233 +888,36 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="6"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="6"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
+        <color theme="6"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="6"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1108,7 +926,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="6"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1116,7 +934,82 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
       </right>
       <top/>
       <bottom/>
@@ -1124,25 +1017,139 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color theme="6"/>
       </left>
       <right/>
-      <top style="hair">
-        <color indexed="64"/>
+      <top style="medium">
+        <color theme="6"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="6"/>
+      </right>
+      <top style="medium">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color theme="6"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
       <top/>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="medium">
+        <color theme="6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="medium">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="medium">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="medium">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="medium">
+        <color theme="6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1151,7 +1158,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1305,132 +1312,189 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="40" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="42" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="46" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="48" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -1447,115 +1511,64 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{AFA6DE3B-1B72-44E4-996E-484128E2BEA9}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
+        <color auto="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor indexed="41"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="41"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1573,7 +1586,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Personnalisé 1">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1581,34 +1594,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E6E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="571CB5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="8FC4E6"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="009DE0"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="7AB51C"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="E6DC8F"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="E6B08F"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -1866,17 +1879,3904 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD59842-9A1C-43E4-B219-91C63D1E053D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Feuil2"/>
+  <dimension ref="A1:AE218"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AH13" sqref="AH13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.703125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="14" width="10.703125" style="39"/>
+    <col min="15" max="15" width="10.703125" style="105"/>
+    <col min="16" max="17" width="2.703125" style="105" customWidth="1"/>
+    <col min="18" max="22" width="10.703125" style="105"/>
+    <col min="23" max="31" width="10.703125" style="104"/>
+    <col min="32" max="16384" width="10.703125" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="53"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+    </row>
+    <row r="2" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="52"/>
+    </row>
+    <row r="3" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="84"/>
+    </row>
+    <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="90"/>
+    </row>
+    <row r="5" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="98"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="93"/>
+    </row>
+    <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="54"/>
+    </row>
+    <row r="7" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="55"/>
+    </row>
+    <row r="8" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="79"/>
+      <c r="C8" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="80"/>
+      <c r="F8" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="80"/>
+      <c r="I8" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="78"/>
+      <c r="N8" s="56"/>
+    </row>
+    <row r="9" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="79"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="87">
+        <f>COUNT(J11:K31)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87">
+        <f>COUNTIF(L11:M31,"=oui")</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="87"/>
+      <c r="N9" s="54"/>
+      <c r="R9" s="105">
+        <f>J9</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="105">
+        <f>L9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="79"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="78" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="78"/>
+      <c r="N10" s="54"/>
+    </row>
+    <row r="11" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="76"/>
+      <c r="C11" s="42">
+        <f>VLOOKUP(A11, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="77" t="str">
+        <f>IF(OR(G11="",D11=""),"",IF(ISERROR(VLOOKUP(A11,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(G11)=TRUE,SUBSTITUTE(G11,"&lt;","",1)*1,G11)&gt;VLOOKUP(A11,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(D11)=TRUE,SUBSTITUTE(D11,"&lt;","",1)*1,D11)&gt;VLOOKUP(A11,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(D11)=TRUE,SUBSTITUTE(D11,"&lt;","",1)*1,D11)-((IF(ISTEXT(D11)=TRUE,SUBSTITUTE(D11,"&lt;","",1)*1,D11)+IF(ISTEXT(G11)=TRUE,SUBSTITUTE(G11,"&lt;","",1)*1,G11))/2))/((IF(ISTEXT(D11)=TRUE,SUBSTITUTE(D11,"&lt;","",1)*1,D11)+IF(ISTEXT(G11)=TRUE,SUBSTITUTE(G11,"&lt;","",1),G11))/2),"-")))</f>
+        <v/>
+      </c>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="54"/>
+    </row>
+    <row r="12" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="68"/>
+      <c r="C12" s="43">
+        <f>VLOOKUP(A12, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="69" t="str">
+        <f>IF(OR(G12="",D12=""),"",IF(ISERROR(VLOOKUP(A12,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(G12)=TRUE,SUBSTITUTE(G12,"&lt;","",1)*1,G12)&gt;VLOOKUP(A12,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(D12)=TRUE,SUBSTITUTE(D12,"&lt;","",1)*1,D12)&gt;VLOOKUP(A12,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(D12)=TRUE,SUBSTITUTE(D12,"&lt;","",1)*1,D12)-((IF(ISTEXT(D12)=TRUE,SUBSTITUTE(D12,"&lt;","",1)*1,D12)+IF(ISTEXT(G12)=TRUE,SUBSTITUTE(G12,"&lt;","",1)*1,G12))/2))/((IF(ISTEXT(D12)=TRUE,SUBSTITUTE(D12,"&lt;","",1)*1,D12)+IF(ISTEXT(G12)=TRUE,SUBSTITUTE(G12,"&lt;","",1),G12))/2),"-")))</f>
+        <v/>
+      </c>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="54"/>
+    </row>
+    <row r="13" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="68"/>
+      <c r="C13" s="43">
+        <f>VLOOKUP(A13, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="69" t="str">
+        <f>IF(OR(G13="",D13=""),"",IF(ISERROR(VLOOKUP(A13,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(G13)=TRUE,SUBSTITUTE(G13,"&lt;","",1)*1,G13)&gt;VLOOKUP(A13,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(D13)=TRUE,SUBSTITUTE(D13,"&lt;","",1)*1,D13)&gt;VLOOKUP(A13,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(D13)=TRUE,SUBSTITUTE(D13,"&lt;","",1)*1,D13)-((IF(ISTEXT(D13)=TRUE,SUBSTITUTE(D13,"&lt;","",1)*1,D13)+IF(ISTEXT(G13)=TRUE,SUBSTITUTE(G13,"&lt;","",1)*1,G13))/2))/((IF(ISTEXT(D13)=TRUE,SUBSTITUTE(D13,"&lt;","",1)*1,D13)+IF(ISTEXT(G13)=TRUE,SUBSTITUTE(G13,"&lt;","",1),G13))/2),"-")))</f>
+        <v/>
+      </c>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="54"/>
+    </row>
+    <row r="14" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="68"/>
+      <c r="C14" s="43">
+        <f>VLOOKUP(A14, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="69" t="str">
+        <f>IF(OR(G14="",D14=""),"",IF(ISERROR(VLOOKUP(A14,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(G14)=TRUE,SUBSTITUTE(G14,"&lt;","",1)*1,G14)&gt;VLOOKUP(A14,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(D14)=TRUE,SUBSTITUTE(D14,"&lt;","",1)*1,D14)&gt;VLOOKUP(A14,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(D14)=TRUE,SUBSTITUTE(D14,"&lt;","",1)*1,D14)-((IF(ISTEXT(D14)=TRUE,SUBSTITUTE(D14,"&lt;","",1)*1,D14)+IF(ISTEXT(G14)=TRUE,SUBSTITUTE(G14,"&lt;","",1)*1,G14))/2))/((IF(ISTEXT(D14)=TRUE,SUBSTITUTE(D14,"&lt;","",1)*1,D14)+IF(ISTEXT(G14)=TRUE,SUBSTITUTE(G14,"&lt;","",1),G14))/2),"-")))</f>
+        <v/>
+      </c>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="54"/>
+    </row>
+    <row r="15" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="68"/>
+      <c r="C15" s="43">
+        <f>VLOOKUP(A15, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="69" t="str">
+        <f>IF(OR(G15="",D15=""),"",IF(ISERROR(VLOOKUP(A15,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(G15)=TRUE,SUBSTITUTE(G15,"&lt;","",1)*1,G15)&gt;VLOOKUP(A15,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(D15)=TRUE,SUBSTITUTE(D15,"&lt;","",1)*1,D15)&gt;VLOOKUP(A15,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(D15)=TRUE,SUBSTITUTE(D15,"&lt;","",1)*1,D15)-((IF(ISTEXT(D15)=TRUE,SUBSTITUTE(D15,"&lt;","",1)*1,D15)+IF(ISTEXT(G15)=TRUE,SUBSTITUTE(G15,"&lt;","",1)*1,G15))/2))/((IF(ISTEXT(D15)=TRUE,SUBSTITUTE(D15,"&lt;","",1)*1,D15)+IF(ISTEXT(G15)=TRUE,SUBSTITUTE(G15,"&lt;","",1),G15))/2),"-")))</f>
+        <v/>
+      </c>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="54"/>
+    </row>
+    <row r="16" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="68"/>
+      <c r="C16" s="43">
+        <f>VLOOKUP(A16, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="69" t="str">
+        <f>IF(OR(G16="",D16=""),"",IF(ISERROR(VLOOKUP(A16,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(G16)=TRUE,SUBSTITUTE(G16,"&lt;","",1)*1,G16)&gt;VLOOKUP(A16,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(D16)=TRUE,SUBSTITUTE(D16,"&lt;","",1)*1,D16)&gt;VLOOKUP(A16,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(D16)=TRUE,SUBSTITUTE(D16,"&lt;","",1)*1,D16)-((IF(ISTEXT(D16)=TRUE,SUBSTITUTE(D16,"&lt;","",1)*1,D16)+IF(ISTEXT(G16)=TRUE,SUBSTITUTE(G16,"&lt;","",1)*1,G16))/2))/((IF(ISTEXT(D16)=TRUE,SUBSTITUTE(D16,"&lt;","",1)*1,D16)+IF(ISTEXT(G16)=TRUE,SUBSTITUTE(G16,"&lt;","",1),G16))/2),"-")))</f>
+        <v/>
+      </c>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="54"/>
+    </row>
+    <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="68"/>
+      <c r="C17" s="43">
+        <f>VLOOKUP(A17, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
+        <v>0.05</v>
+      </c>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="69" t="str">
+        <f>IF(OR(G17="",D17=""),"",IF(ISERROR(VLOOKUP(A17,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(G17)=TRUE,SUBSTITUTE(G17,"&lt;","",1)*1,G17)&gt;VLOOKUP(A17,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(D17)=TRUE,SUBSTITUTE(D17,"&lt;","",1)*1,D17)&gt;VLOOKUP(A17,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(D17)=TRUE,SUBSTITUTE(D17,"&lt;","",1)*1,D17)-((IF(ISTEXT(D17)=TRUE,SUBSTITUTE(D17,"&lt;","",1)*1,D17)+IF(ISTEXT(G17)=TRUE,SUBSTITUTE(G17,"&lt;","",1)*1,G17))/2))/((IF(ISTEXT(D17)=TRUE,SUBSTITUTE(D17,"&lt;","",1)*1,D17)+IF(ISTEXT(G17)=TRUE,SUBSTITUTE(G17,"&lt;","",1),G17))/2),"-")))</f>
+        <v/>
+      </c>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="54"/>
+    </row>
+    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="68"/>
+      <c r="C18" s="43">
+        <f>VLOOKUP(A18, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="69" t="str">
+        <f>IF(OR(G18="",D18=""),"",IF(ISERROR(VLOOKUP(A18,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(G18)=TRUE,SUBSTITUTE(G18,"&lt;","",1)*1,G18)&gt;VLOOKUP(A18,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(D18)=TRUE,SUBSTITUTE(D18,"&lt;","",1)*1,D18)&gt;VLOOKUP(A18,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(D18)=TRUE,SUBSTITUTE(D18,"&lt;","",1)*1,D18)-((IF(ISTEXT(D18)=TRUE,SUBSTITUTE(D18,"&lt;","",1)*1,D18)+IF(ISTEXT(G18)=TRUE,SUBSTITUTE(G18,"&lt;","",1)*1,G18))/2))/((IF(ISTEXT(D18)=TRUE,SUBSTITUTE(D18,"&lt;","",1)*1,D18)+IF(ISTEXT(G18)=TRUE,SUBSTITUTE(G18,"&lt;","",1),G18))/2),"-")))</f>
+        <v/>
+      </c>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="54"/>
+    </row>
+    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="68"/>
+      <c r="C19" s="43">
+        <f>VLOOKUP(A19, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
+        <v>0.05</v>
+      </c>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="69" t="str">
+        <f>IF(OR(G19="",D19=""),"",IF(ISERROR(VLOOKUP(A19,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(G19)=TRUE,SUBSTITUTE(G19,"&lt;","",1)*1,G19)&gt;VLOOKUP(A19,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(D19)=TRUE,SUBSTITUTE(D19,"&lt;","",1)*1,D19)&gt;VLOOKUP(A19,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(D19)=TRUE,SUBSTITUTE(D19,"&lt;","",1)*1,D19)-((IF(ISTEXT(D19)=TRUE,SUBSTITUTE(D19,"&lt;","",1)*1,D19)+IF(ISTEXT(G19)=TRUE,SUBSTITUTE(G19,"&lt;","",1)*1,G19))/2))/((IF(ISTEXT(D19)=TRUE,SUBSTITUTE(D19,"&lt;","",1)*1,D19)+IF(ISTEXT(G19)=TRUE,SUBSTITUTE(G19,"&lt;","",1),G19))/2),"-")))</f>
+        <v/>
+      </c>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="54"/>
+    </row>
+    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="68"/>
+      <c r="C20" s="43">
+        <f>VLOOKUP(A20, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="69" t="str">
+        <f>IF(OR(G20="",D20=""),"",IF(ISERROR(VLOOKUP(A20,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(G20)=TRUE,SUBSTITUTE(G20,"&lt;","",1)*1,G20)&gt;VLOOKUP(A20,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(D20)=TRUE,SUBSTITUTE(D20,"&lt;","",1)*1,D20)&gt;VLOOKUP(A20,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(D20)=TRUE,SUBSTITUTE(D20,"&lt;","",1)*1,D20)-((IF(ISTEXT(D20)=TRUE,SUBSTITUTE(D20,"&lt;","",1)*1,D20)+IF(ISTEXT(G20)=TRUE,SUBSTITUTE(G20,"&lt;","",1)*1,G20))/2))/((IF(ISTEXT(D20)=TRUE,SUBSTITUTE(D20,"&lt;","",1)*1,D20)+IF(ISTEXT(G20)=TRUE,SUBSTITUTE(G20,"&lt;","",1),G20))/2),"-")))</f>
+        <v/>
+      </c>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="54"/>
+    </row>
+    <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="68"/>
+      <c r="C21" s="43">
+        <f>VLOOKUP(A21, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="69" t="str">
+        <f>IF(OR(G21="",D21=""),"",IF(ISERROR(VLOOKUP(A21,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(G21)=TRUE,SUBSTITUTE(G21,"&lt;","",1)*1,G21)&gt;VLOOKUP(A21,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(D21)=TRUE,SUBSTITUTE(D21,"&lt;","",1)*1,D21)&gt;VLOOKUP(A21,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(D21)=TRUE,SUBSTITUTE(D21,"&lt;","",1)*1,D21)-((IF(ISTEXT(D21)=TRUE,SUBSTITUTE(D21,"&lt;","",1)*1,D21)+IF(ISTEXT(G21)=TRUE,SUBSTITUTE(G21,"&lt;","",1)*1,G21))/2))/((IF(ISTEXT(D21)=TRUE,SUBSTITUTE(D21,"&lt;","",1)*1,D21)+IF(ISTEXT(G21)=TRUE,SUBSTITUTE(G21,"&lt;","",1),G21))/2),"-")))</f>
+        <v/>
+      </c>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="54"/>
+    </row>
+    <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="68"/>
+      <c r="C22" s="43">
+        <f>VLOOKUP(A22, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="69" t="str">
+        <f>IF(OR(G22="",D22=""),"",IF(ISERROR(VLOOKUP(A22,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(G22)=TRUE,SUBSTITUTE(G22,"&lt;","",1)*1,G22)&gt;VLOOKUP(A22,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(D22)=TRUE,SUBSTITUTE(D22,"&lt;","",1)*1,D22)&gt;VLOOKUP(A22,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(D22)=TRUE,SUBSTITUTE(D22,"&lt;","",1)*1,D22)-((IF(ISTEXT(D22)=TRUE,SUBSTITUTE(D22,"&lt;","",1)*1,D22)+IF(ISTEXT(G22)=TRUE,SUBSTITUTE(G22,"&lt;","",1)*1,G22))/2))/((IF(ISTEXT(D22)=TRUE,SUBSTITUTE(D22,"&lt;","",1)*1,D22)+IF(ISTEXT(G22)=TRUE,SUBSTITUTE(G22,"&lt;","",1),G22))/2),"-")))</f>
+        <v/>
+      </c>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="54"/>
+    </row>
+    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="68"/>
+      <c r="C23" s="43">
+        <f>VLOOKUP(A23, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="69" t="str">
+        <f>IF(OR(G23="",D23=""),"",IF(ISERROR(VLOOKUP(A23,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(G23)=TRUE,SUBSTITUTE(G23,"&lt;","",1)*1,G23)&gt;VLOOKUP(A23,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(D23)=TRUE,SUBSTITUTE(D23,"&lt;","",1)*1,D23)&gt;VLOOKUP(A23,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(D23)=TRUE,SUBSTITUTE(D23,"&lt;","",1)*1,D23)-((IF(ISTEXT(D23)=TRUE,SUBSTITUTE(D23,"&lt;","",1)*1,D23)+IF(ISTEXT(G23)=TRUE,SUBSTITUTE(G23,"&lt;","",1)*1,G23))/2))/((IF(ISTEXT(D23)=TRUE,SUBSTITUTE(D23,"&lt;","",1)*1,D23)+IF(ISTEXT(G23)=TRUE,SUBSTITUTE(G23,"&lt;","",1),G23))/2),"-")))</f>
+        <v/>
+      </c>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="54"/>
+    </row>
+    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="68"/>
+      <c r="C24" s="43">
+        <f>VLOOKUP(A24, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="69" t="str">
+        <f>IF(OR(G24="",D24=""),"",IF(ISERROR(VLOOKUP(A24,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(G24)=TRUE,SUBSTITUTE(G24,"&lt;","",1)*1,G24)&gt;VLOOKUP(A24,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(D24)=TRUE,SUBSTITUTE(D24,"&lt;","",1)*1,D24)&gt;VLOOKUP(A24,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(D24)=TRUE,SUBSTITUTE(D24,"&lt;","",1)*1,D24)-((IF(ISTEXT(D24)=TRUE,SUBSTITUTE(D24,"&lt;","",1)*1,D24)+IF(ISTEXT(G24)=TRUE,SUBSTITUTE(G24,"&lt;","",1)*1,G24))/2))/((IF(ISTEXT(D24)=TRUE,SUBSTITUTE(D24,"&lt;","",1)*1,D24)+IF(ISTEXT(G24)=TRUE,SUBSTITUTE(G24,"&lt;","",1),G24))/2),"-")))</f>
+        <v/>
+      </c>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="54"/>
+    </row>
+    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="68"/>
+      <c r="C25" s="43">
+        <f>VLOOKUP(A25, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="69" t="str">
+        <f>IF(OR(G25="",D25=""),"",IF(ISERROR(VLOOKUP(A25,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(G25)=TRUE,SUBSTITUTE(G25,"&lt;","",1)*1,G25)&gt;VLOOKUP(A25,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(D25)=TRUE,SUBSTITUTE(D25,"&lt;","",1)*1,D25)&gt;VLOOKUP(A25,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(D25)=TRUE,SUBSTITUTE(D25,"&lt;","",1)*1,D25)-((IF(ISTEXT(D25)=TRUE,SUBSTITUTE(D25,"&lt;","",1)*1,D25)+IF(ISTEXT(G25)=TRUE,SUBSTITUTE(G25,"&lt;","",1)*1,G25))/2))/((IF(ISTEXT(D25)=TRUE,SUBSTITUTE(D25,"&lt;","",1)*1,D25)+IF(ISTEXT(G25)=TRUE,SUBSTITUTE(G25,"&lt;","",1),G25))/2),"-")))</f>
+        <v/>
+      </c>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="54"/>
+    </row>
+    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="68"/>
+      <c r="C26" s="43">
+        <f>VLOOKUP(A26, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
+        <v>2E-3</v>
+      </c>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="69" t="str">
+        <f>IF(OR(G26="",D26=""),"",IF(ISERROR(VLOOKUP(A26,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(G26)=TRUE,SUBSTITUTE(G26,"&lt;","",1)*1,G26)&gt;VLOOKUP(A26,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(D26)=TRUE,SUBSTITUTE(D26,"&lt;","",1)*1,D26)&gt;VLOOKUP(A26,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(D26)=TRUE,SUBSTITUTE(D26,"&lt;","",1)*1,D26)-((IF(ISTEXT(D26)=TRUE,SUBSTITUTE(D26,"&lt;","",1)*1,D26)+IF(ISTEXT(G26)=TRUE,SUBSTITUTE(G26,"&lt;","",1)*1,G26))/2))/((IF(ISTEXT(D26)=TRUE,SUBSTITUTE(D26,"&lt;","",1)*1,D26)+IF(ISTEXT(G26)=TRUE,SUBSTITUTE(G26,"&lt;","",1),G26))/2),"-")))</f>
+        <v/>
+      </c>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="54"/>
+    </row>
+    <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="68"/>
+      <c r="C27" s="43">
+        <f>VLOOKUP(A27, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="69" t="str">
+        <f>IF(OR(G27="",D27=""),"",IF(ISERROR(VLOOKUP(A27,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(G27)=TRUE,SUBSTITUTE(G27,"&lt;","",1)*1,G27)&gt;VLOOKUP(A27,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(D27)=TRUE,SUBSTITUTE(D27,"&lt;","",1)*1,D27)&gt;VLOOKUP(A27,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(D27)=TRUE,SUBSTITUTE(D27,"&lt;","",1)*1,D27)-((IF(ISTEXT(D27)=TRUE,SUBSTITUTE(D27,"&lt;","",1)*1,D27)+IF(ISTEXT(G27)=TRUE,SUBSTITUTE(G27,"&lt;","",1)*1,G27))/2))/((IF(ISTEXT(D27)=TRUE,SUBSTITUTE(D27,"&lt;","",1)*1,D27)+IF(ISTEXT(G27)=TRUE,SUBSTITUTE(G27,"&lt;","",1),G27))/2),"-")))</f>
+        <v/>
+      </c>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="54"/>
+    </row>
+    <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="68"/>
+      <c r="C28" s="43">
+        <f>VLOOKUP(A28, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
+        <v>0.01</v>
+      </c>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="69" t="str">
+        <f>IF(OR(G28="",D28=""),"",IF(ISERROR(VLOOKUP(A28,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(G28)=TRUE,SUBSTITUTE(G28,"&lt;","",1)*1,G28)&gt;VLOOKUP(A28,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(D28)=TRUE,SUBSTITUTE(D28,"&lt;","",1)*1,D28)&gt;VLOOKUP(A28,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(D28)=TRUE,SUBSTITUTE(D28,"&lt;","",1)*1,D28)-((IF(ISTEXT(D28)=TRUE,SUBSTITUTE(D28,"&lt;","",1)*1,D28)+IF(ISTEXT(G28)=TRUE,SUBSTITUTE(G28,"&lt;","",1)*1,G28))/2))/((IF(ISTEXT(D28)=TRUE,SUBSTITUTE(D28,"&lt;","",1)*1,D28)+IF(ISTEXT(G28)=TRUE,SUBSTITUTE(G28,"&lt;","",1),G28))/2),"-")))</f>
+        <v/>
+      </c>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="54"/>
+    </row>
+    <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="68"/>
+      <c r="C29" s="43">
+        <f>VLOOKUP(A29, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
+        <v>0.3</v>
+      </c>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="69" t="str">
+        <f>IF(OR(G29="",D29=""),"",IF(ISERROR(VLOOKUP(A29,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(G29)=TRUE,SUBSTITUTE(G29,"&lt;","",1)*1,G29)&gt;VLOOKUP(A29,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(D29)=TRUE,SUBSTITUTE(D29,"&lt;","",1)*1,D29)&gt;VLOOKUP(A29,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(D29)=TRUE,SUBSTITUTE(D29,"&lt;","",1)*1,D29)-((IF(ISTEXT(D29)=TRUE,SUBSTITUTE(D29,"&lt;","",1)*1,D29)+IF(ISTEXT(G29)=TRUE,SUBSTITUTE(G29,"&lt;","",1)*1,G29))/2))/((IF(ISTEXT(D29)=TRUE,SUBSTITUTE(D29,"&lt;","",1)*1,D29)+IF(ISTEXT(G29)=TRUE,SUBSTITUTE(G29,"&lt;","",1),G29))/2),"-")))</f>
+        <v/>
+      </c>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="54"/>
+    </row>
+    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="68"/>
+      <c r="C30" s="43">
+        <f>VLOOKUP(A30, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="69" t="str">
+        <f>IF(OR(G30="",D30=""),"",IF(ISERROR(VLOOKUP(A30,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(G30)=TRUE,SUBSTITUTE(G30,"&lt;","",1)*1,G30)&gt;VLOOKUP(A30,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(D30)=TRUE,SUBSTITUTE(D30,"&lt;","",1)*1,D30)&gt;VLOOKUP(A30,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(D30)=TRUE,SUBSTITUTE(D30,"&lt;","",1)*1,D30)-((IF(ISTEXT(D30)=TRUE,SUBSTITUTE(D30,"&lt;","",1)*1,D30)+IF(ISTEXT(G30)=TRUE,SUBSTITUTE(G30,"&lt;","",1)*1,G30))/2))/((IF(ISTEXT(D30)=TRUE,SUBSTITUTE(D30,"&lt;","",1)*1,D30)+IF(ISTEXT(G30)=TRUE,SUBSTITUTE(G30,"&lt;","",1),G30))/2),"-")))</f>
+        <v/>
+      </c>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="54"/>
+    </row>
+    <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="70"/>
+      <c r="C31" s="44">
+        <f>VLOOKUP(A31, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="71" t="str">
+        <f>IF(OR(G31="",D31=""),"",IF(ISERROR(VLOOKUP(A31,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(G31)=TRUE,SUBSTITUTE(G31,"&lt;","",1)*1,G31)&gt;VLOOKUP(A31,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(D31)=TRUE,SUBSTITUTE(D31,"&lt;","",1)*1,D31)&gt;VLOOKUP(A31,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(D31)=TRUE,SUBSTITUTE(D31,"&lt;","",1)*1,D31)-((IF(ISTEXT(D31)=TRUE,SUBSTITUTE(D31,"&lt;","",1)*1,D31)+IF(ISTEXT(G31)=TRUE,SUBSTITUTE(G31,"&lt;","",1)*1,G31))/2))/((IF(ISTEXT(D31)=TRUE,SUBSTITUTE(D31,"&lt;","",1)*1,D31)+IF(ISTEXT(G31)=TRUE,SUBSTITUTE(G31,"&lt;","",1),G31))/2),"-")))</f>
+        <v/>
+      </c>
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="54"/>
+    </row>
+    <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="75"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="54"/>
+    </row>
+    <row r="33" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="53"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="54"/>
+    </row>
+    <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="54"/>
+    </row>
+    <row r="35" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="58"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="57"/>
+    </row>
+    <row r="36" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="61"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="57"/>
+    </row>
+    <row r="37" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="64"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="65"/>
+      <c r="M37" s="66"/>
+      <c r="N37" s="57"/>
+    </row>
+    <row r="38" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="53"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="54"/>
+    </row>
+    <row r="39" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="53"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="54"/>
+    </row>
+    <row r="40" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="53"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="54"/>
+    </row>
+    <row r="41" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="48"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="48"/>
+    </row>
+    <row r="42" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A42" s="48"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="48"/>
+    </row>
+    <row r="43" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="48"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="48"/>
+    </row>
+    <row r="44" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="48"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="48"/>
+      <c r="N44" s="48"/>
+    </row>
+    <row r="45" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A45" s="48"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="48"/>
+      <c r="N45" s="48"/>
+    </row>
+    <row r="46" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="48"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="48"/>
+    </row>
+    <row r="47" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A47" s="48"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="48"/>
+    </row>
+    <row r="48" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="48"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="48"/>
+      <c r="M48" s="48"/>
+      <c r="N48" s="48"/>
+    </row>
+    <row r="49" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="48"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="48"/>
+      <c r="N49" s="48"/>
+    </row>
+    <row r="50" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A50" s="48"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="48"/>
+      <c r="M50" s="48"/>
+      <c r="N50" s="48"/>
+    </row>
+    <row r="51" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A51" s="48"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="48"/>
+      <c r="N51" s="48"/>
+    </row>
+    <row r="52" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A52" s="48"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="48"/>
+      <c r="M52" s="48"/>
+      <c r="N52" s="48"/>
+    </row>
+    <row r="53" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A53" s="48"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="48"/>
+      <c r="M53" s="48"/>
+      <c r="N53" s="48"/>
+    </row>
+    <row r="54" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A54" s="48"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="48"/>
+      <c r="L54" s="48"/>
+      <c r="M54" s="48"/>
+      <c r="N54" s="48"/>
+    </row>
+    <row r="55" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A55" s="48"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="48"/>
+      <c r="M55" s="48"/>
+      <c r="N55" s="48"/>
+    </row>
+    <row r="56" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="48"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="48"/>
+      <c r="K56" s="48"/>
+      <c r="L56" s="48"/>
+      <c r="M56" s="48"/>
+      <c r="N56" s="48"/>
+    </row>
+    <row r="57" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="48"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="48"/>
+      <c r="J57" s="48"/>
+      <c r="K57" s="48"/>
+      <c r="L57" s="48"/>
+      <c r="M57" s="48"/>
+      <c r="N57" s="48"/>
+    </row>
+    <row r="58" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="48"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="48"/>
+      <c r="J58" s="48"/>
+      <c r="K58" s="48"/>
+      <c r="L58" s="48"/>
+      <c r="M58" s="48"/>
+      <c r="N58" s="48"/>
+    </row>
+    <row r="59" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="48"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="48"/>
+      <c r="J59" s="48"/>
+      <c r="K59" s="48"/>
+      <c r="L59" s="48"/>
+      <c r="M59" s="48"/>
+      <c r="N59" s="48"/>
+    </row>
+    <row r="60" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="48"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="48"/>
+      <c r="K60" s="48"/>
+      <c r="L60" s="48"/>
+      <c r="M60" s="48"/>
+      <c r="N60" s="48"/>
+    </row>
+    <row r="61" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="48"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="48"/>
+      <c r="J61" s="48"/>
+      <c r="K61" s="48"/>
+      <c r="L61" s="48"/>
+      <c r="M61" s="48"/>
+      <c r="N61" s="48"/>
+    </row>
+    <row r="62" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A62" s="48"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="48"/>
+      <c r="J62" s="48"/>
+      <c r="K62" s="48"/>
+      <c r="L62" s="48"/>
+      <c r="M62" s="48"/>
+      <c r="N62" s="48"/>
+    </row>
+    <row r="63" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A63" s="48"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="48"/>
+      <c r="I63" s="48"/>
+      <c r="J63" s="48"/>
+      <c r="K63" s="48"/>
+      <c r="L63" s="48"/>
+      <c r="M63" s="48"/>
+      <c r="N63" s="48"/>
+    </row>
+    <row r="64" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A64" s="48"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="48"/>
+      <c r="H64" s="48"/>
+      <c r="I64" s="48"/>
+      <c r="J64" s="48"/>
+      <c r="K64" s="48"/>
+      <c r="L64" s="48"/>
+      <c r="M64" s="48"/>
+      <c r="N64" s="48"/>
+    </row>
+    <row r="65" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A65" s="48"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="48"/>
+      <c r="J65" s="48"/>
+      <c r="K65" s="48"/>
+      <c r="L65" s="48"/>
+      <c r="M65" s="48"/>
+      <c r="N65" s="48"/>
+    </row>
+    <row r="66" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A66" s="48"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="48"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="48"/>
+      <c r="J66" s="48"/>
+      <c r="K66" s="48"/>
+      <c r="L66" s="48"/>
+      <c r="M66" s="48"/>
+      <c r="N66" s="48"/>
+    </row>
+    <row r="67" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A67" s="48"/>
+      <c r="B67" s="48"/>
+      <c r="C67" s="48"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="48"/>
+      <c r="J67" s="48"/>
+      <c r="K67" s="48"/>
+      <c r="L67" s="48"/>
+      <c r="M67" s="48"/>
+      <c r="N67" s="48"/>
+    </row>
+    <row r="68" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A68" s="48"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="48"/>
+      <c r="J68" s="48"/>
+      <c r="K68" s="48"/>
+      <c r="L68" s="48"/>
+      <c r="M68" s="48"/>
+      <c r="N68" s="48"/>
+    </row>
+    <row r="69" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A69" s="48"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="48"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="48"/>
+      <c r="J69" s="48"/>
+      <c r="K69" s="48"/>
+      <c r="L69" s="48"/>
+      <c r="M69" s="48"/>
+      <c r="N69" s="48"/>
+    </row>
+    <row r="70" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A70" s="48"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="48"/>
+      <c r="D70" s="48"/>
+      <c r="E70" s="48"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="48"/>
+      <c r="I70" s="48"/>
+      <c r="J70" s="48"/>
+      <c r="K70" s="48"/>
+      <c r="L70" s="48"/>
+      <c r="M70" s="48"/>
+      <c r="N70" s="48"/>
+    </row>
+    <row r="71" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A71" s="48"/>
+      <c r="B71" s="48"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="48"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="48"/>
+      <c r="I71" s="48"/>
+      <c r="J71" s="48"/>
+      <c r="K71" s="48"/>
+      <c r="L71" s="48"/>
+      <c r="M71" s="48"/>
+      <c r="N71" s="48"/>
+    </row>
+    <row r="72" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A72" s="48"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="48"/>
+      <c r="E72" s="48"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="48"/>
+      <c r="H72" s="48"/>
+      <c r="I72" s="48"/>
+      <c r="J72" s="48"/>
+      <c r="K72" s="48"/>
+      <c r="L72" s="48"/>
+      <c r="M72" s="48"/>
+      <c r="N72" s="48"/>
+    </row>
+    <row r="73" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A73" s="48"/>
+      <c r="B73" s="48"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="48"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="48"/>
+      <c r="I73" s="48"/>
+      <c r="J73" s="48"/>
+      <c r="K73" s="48"/>
+      <c r="L73" s="48"/>
+      <c r="M73" s="48"/>
+      <c r="N73" s="48"/>
+    </row>
+    <row r="74" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A74" s="48"/>
+      <c r="B74" s="48"/>
+      <c r="C74" s="48"/>
+      <c r="D74" s="48"/>
+      <c r="E74" s="48"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="48"/>
+      <c r="I74" s="48"/>
+      <c r="J74" s="48"/>
+      <c r="K74" s="48"/>
+      <c r="L74" s="48"/>
+      <c r="M74" s="48"/>
+      <c r="N74" s="48"/>
+    </row>
+    <row r="75" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A75" s="48"/>
+      <c r="B75" s="48"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="48"/>
+      <c r="J75" s="48"/>
+      <c r="K75" s="48"/>
+      <c r="L75" s="48"/>
+      <c r="M75" s="48"/>
+      <c r="N75" s="48"/>
+    </row>
+    <row r="76" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A76" s="48"/>
+      <c r="B76" s="48"/>
+      <c r="C76" s="48"/>
+      <c r="D76" s="48"/>
+      <c r="E76" s="48"/>
+      <c r="F76" s="48"/>
+      <c r="G76" s="48"/>
+      <c r="H76" s="48"/>
+      <c r="I76" s="48"/>
+      <c r="J76" s="48"/>
+      <c r="K76" s="48"/>
+      <c r="L76" s="48"/>
+      <c r="M76" s="48"/>
+      <c r="N76" s="48"/>
+    </row>
+    <row r="77" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A77" s="48"/>
+      <c r="B77" s="48"/>
+      <c r="C77" s="48"/>
+      <c r="D77" s="48"/>
+      <c r="E77" s="48"/>
+      <c r="F77" s="48"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="48"/>
+      <c r="I77" s="48"/>
+      <c r="J77" s="48"/>
+      <c r="K77" s="48"/>
+      <c r="L77" s="48"/>
+      <c r="M77" s="48"/>
+      <c r="N77" s="48"/>
+    </row>
+    <row r="78" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A78" s="48"/>
+      <c r="B78" s="48"/>
+      <c r="C78" s="48"/>
+      <c r="D78" s="48"/>
+      <c r="E78" s="48"/>
+      <c r="F78" s="48"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="48"/>
+      <c r="I78" s="48"/>
+      <c r="J78" s="48"/>
+      <c r="K78" s="48"/>
+      <c r="L78" s="48"/>
+      <c r="M78" s="48"/>
+      <c r="N78" s="48"/>
+    </row>
+    <row r="79" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A79" s="48"/>
+      <c r="B79" s="48"/>
+      <c r="C79" s="48"/>
+      <c r="D79" s="48"/>
+      <c r="E79" s="48"/>
+      <c r="F79" s="48"/>
+      <c r="G79" s="48"/>
+      <c r="H79" s="48"/>
+      <c r="I79" s="48"/>
+      <c r="J79" s="48"/>
+      <c r="K79" s="48"/>
+      <c r="L79" s="48"/>
+      <c r="M79" s="48"/>
+      <c r="N79" s="48"/>
+    </row>
+    <row r="80" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A80" s="48"/>
+      <c r="B80" s="48"/>
+      <c r="C80" s="48"/>
+      <c r="D80" s="48"/>
+      <c r="E80" s="48"/>
+      <c r="F80" s="48"/>
+      <c r="G80" s="48"/>
+      <c r="H80" s="48"/>
+      <c r="I80" s="48"/>
+      <c r="J80" s="48"/>
+      <c r="K80" s="48"/>
+      <c r="L80" s="48"/>
+      <c r="M80" s="48"/>
+      <c r="N80" s="48"/>
+    </row>
+    <row r="81" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A81" s="48"/>
+      <c r="B81" s="48"/>
+      <c r="C81" s="48"/>
+      <c r="D81" s="48"/>
+      <c r="E81" s="48"/>
+      <c r="F81" s="48"/>
+      <c r="G81" s="48"/>
+      <c r="H81" s="48"/>
+      <c r="I81" s="48"/>
+      <c r="J81" s="48"/>
+      <c r="K81" s="48"/>
+      <c r="L81" s="48"/>
+      <c r="M81" s="48"/>
+      <c r="N81" s="48"/>
+    </row>
+    <row r="82" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A82" s="48"/>
+      <c r="B82" s="48"/>
+      <c r="C82" s="48"/>
+      <c r="D82" s="48"/>
+      <c r="E82" s="48"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="48"/>
+      <c r="I82" s="48"/>
+      <c r="J82" s="48"/>
+      <c r="K82" s="48"/>
+      <c r="L82" s="48"/>
+      <c r="M82" s="48"/>
+      <c r="N82" s="48"/>
+    </row>
+    <row r="83" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A83" s="48"/>
+      <c r="B83" s="48"/>
+      <c r="C83" s="48"/>
+      <c r="D83" s="48"/>
+      <c r="E83" s="48"/>
+      <c r="F83" s="48"/>
+      <c r="G83" s="48"/>
+      <c r="H83" s="48"/>
+      <c r="I83" s="48"/>
+      <c r="J83" s="48"/>
+      <c r="K83" s="48"/>
+      <c r="L83" s="48"/>
+      <c r="M83" s="48"/>
+      <c r="N83" s="48"/>
+    </row>
+    <row r="84" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A84" s="48"/>
+      <c r="B84" s="48"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="48"/>
+      <c r="E84" s="48"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="48"/>
+      <c r="I84" s="48"/>
+      <c r="J84" s="48"/>
+      <c r="K84" s="48"/>
+      <c r="L84" s="48"/>
+      <c r="M84" s="48"/>
+      <c r="N84" s="48"/>
+    </row>
+    <row r="85" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A85" s="48"/>
+      <c r="B85" s="48"/>
+      <c r="C85" s="48"/>
+      <c r="D85" s="48"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="48"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="48"/>
+      <c r="I85" s="48"/>
+      <c r="J85" s="48"/>
+      <c r="K85" s="48"/>
+      <c r="L85" s="48"/>
+      <c r="M85" s="48"/>
+      <c r="N85" s="48"/>
+    </row>
+    <row r="86" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A86" s="48"/>
+      <c r="B86" s="48"/>
+      <c r="C86" s="48"/>
+      <c r="D86" s="48"/>
+      <c r="E86" s="48"/>
+      <c r="F86" s="48"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="48"/>
+      <c r="I86" s="48"/>
+      <c r="J86" s="48"/>
+      <c r="K86" s="48"/>
+      <c r="L86" s="48"/>
+      <c r="M86" s="48"/>
+      <c r="N86" s="48"/>
+    </row>
+    <row r="87" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A87" s="48"/>
+      <c r="B87" s="48"/>
+      <c r="C87" s="48"/>
+      <c r="D87" s="48"/>
+      <c r="E87" s="48"/>
+      <c r="F87" s="48"/>
+      <c r="G87" s="48"/>
+      <c r="H87" s="48"/>
+      <c r="I87" s="48"/>
+      <c r="J87" s="48"/>
+      <c r="K87" s="48"/>
+      <c r="L87" s="48"/>
+      <c r="M87" s="48"/>
+      <c r="N87" s="48"/>
+    </row>
+    <row r="88" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A88" s="48"/>
+      <c r="B88" s="48"/>
+      <c r="C88" s="48"/>
+      <c r="D88" s="48"/>
+      <c r="E88" s="48"/>
+      <c r="F88" s="48"/>
+      <c r="G88" s="48"/>
+      <c r="H88" s="48"/>
+      <c r="I88" s="48"/>
+      <c r="J88" s="48"/>
+      <c r="K88" s="48"/>
+      <c r="L88" s="48"/>
+      <c r="M88" s="48"/>
+      <c r="N88" s="48"/>
+    </row>
+    <row r="89" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A89" s="48"/>
+      <c r="B89" s="48"/>
+      <c r="C89" s="48"/>
+      <c r="D89" s="48"/>
+      <c r="E89" s="48"/>
+      <c r="F89" s="48"/>
+      <c r="G89" s="48"/>
+      <c r="H89" s="48"/>
+      <c r="I89" s="48"/>
+      <c r="J89" s="48"/>
+      <c r="K89" s="48"/>
+      <c r="L89" s="48"/>
+      <c r="M89" s="48"/>
+      <c r="N89" s="48"/>
+    </row>
+    <row r="90" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A90" s="48"/>
+      <c r="B90" s="48"/>
+      <c r="C90" s="48"/>
+      <c r="D90" s="48"/>
+      <c r="E90" s="48"/>
+      <c r="F90" s="48"/>
+      <c r="G90" s="48"/>
+      <c r="H90" s="48"/>
+      <c r="I90" s="48"/>
+      <c r="J90" s="48"/>
+      <c r="K90" s="48"/>
+      <c r="L90" s="48"/>
+      <c r="M90" s="48"/>
+      <c r="N90" s="48"/>
+    </row>
+    <row r="91" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A91" s="48"/>
+      <c r="B91" s="48"/>
+      <c r="C91" s="48"/>
+      <c r="D91" s="48"/>
+      <c r="E91" s="48"/>
+      <c r="F91" s="48"/>
+      <c r="G91" s="48"/>
+      <c r="H91" s="48"/>
+      <c r="I91" s="48"/>
+      <c r="J91" s="48"/>
+      <c r="K91" s="48"/>
+      <c r="L91" s="48"/>
+      <c r="M91" s="48"/>
+      <c r="N91" s="48"/>
+    </row>
+    <row r="92" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A92" s="48"/>
+      <c r="B92" s="48"/>
+      <c r="C92" s="48"/>
+      <c r="D92" s="48"/>
+      <c r="E92" s="48"/>
+      <c r="F92" s="48"/>
+      <c r="G92" s="48"/>
+      <c r="H92" s="48"/>
+      <c r="I92" s="48"/>
+      <c r="J92" s="48"/>
+      <c r="K92" s="48"/>
+      <c r="L92" s="48"/>
+      <c r="M92" s="48"/>
+      <c r="N92" s="48"/>
+    </row>
+    <row r="93" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A93" s="48"/>
+      <c r="B93" s="48"/>
+      <c r="C93" s="48"/>
+      <c r="D93" s="48"/>
+      <c r="E93" s="48"/>
+      <c r="F93" s="48"/>
+      <c r="G93" s="48"/>
+      <c r="H93" s="48"/>
+      <c r="I93" s="48"/>
+      <c r="J93" s="48"/>
+      <c r="K93" s="48"/>
+      <c r="L93" s="48"/>
+      <c r="M93" s="48"/>
+      <c r="N93" s="48"/>
+    </row>
+    <row r="94" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A94" s="48"/>
+      <c r="B94" s="48"/>
+      <c r="C94" s="48"/>
+      <c r="D94" s="48"/>
+      <c r="E94" s="48"/>
+      <c r="F94" s="48"/>
+      <c r="G94" s="48"/>
+      <c r="H94" s="48"/>
+      <c r="I94" s="48"/>
+      <c r="J94" s="48"/>
+      <c r="K94" s="48"/>
+      <c r="L94" s="48"/>
+      <c r="M94" s="48"/>
+      <c r="N94" s="48"/>
+    </row>
+    <row r="95" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A95" s="48"/>
+      <c r="B95" s="48"/>
+      <c r="C95" s="48"/>
+      <c r="D95" s="48"/>
+      <c r="E95" s="48"/>
+      <c r="F95" s="48"/>
+      <c r="G95" s="48"/>
+      <c r="H95" s="48"/>
+      <c r="I95" s="48"/>
+      <c r="J95" s="48"/>
+      <c r="K95" s="48"/>
+      <c r="L95" s="48"/>
+      <c r="M95" s="48"/>
+      <c r="N95" s="48"/>
+    </row>
+    <row r="96" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A96" s="48"/>
+      <c r="B96" s="48"/>
+      <c r="C96" s="48"/>
+      <c r="D96" s="48"/>
+      <c r="E96" s="48"/>
+      <c r="F96" s="48"/>
+      <c r="G96" s="48"/>
+      <c r="H96" s="48"/>
+      <c r="I96" s="48"/>
+      <c r="J96" s="48"/>
+      <c r="K96" s="48"/>
+      <c r="L96" s="48"/>
+      <c r="M96" s="48"/>
+      <c r="N96" s="48"/>
+    </row>
+    <row r="97" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A97" s="48"/>
+      <c r="B97" s="48"/>
+      <c r="C97" s="48"/>
+      <c r="D97" s="48"/>
+      <c r="E97" s="48"/>
+      <c r="F97" s="48"/>
+      <c r="G97" s="48"/>
+      <c r="H97" s="48"/>
+      <c r="I97" s="48"/>
+      <c r="J97" s="48"/>
+      <c r="K97" s="48"/>
+      <c r="L97" s="48"/>
+      <c r="M97" s="48"/>
+      <c r="N97" s="48"/>
+    </row>
+    <row r="98" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A98" s="48"/>
+      <c r="B98" s="48"/>
+      <c r="C98" s="48"/>
+      <c r="D98" s="48"/>
+      <c r="E98" s="48"/>
+      <c r="F98" s="48"/>
+      <c r="G98" s="48"/>
+      <c r="H98" s="48"/>
+      <c r="I98" s="48"/>
+      <c r="J98" s="48"/>
+      <c r="K98" s="48"/>
+      <c r="L98" s="48"/>
+      <c r="M98" s="48"/>
+      <c r="N98" s="48"/>
+    </row>
+    <row r="99" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A99" s="48"/>
+      <c r="B99" s="48"/>
+      <c r="C99" s="48"/>
+      <c r="D99" s="48"/>
+      <c r="E99" s="48"/>
+      <c r="F99" s="48"/>
+      <c r="G99" s="48"/>
+      <c r="H99" s="48"/>
+      <c r="I99" s="48"/>
+      <c r="J99" s="48"/>
+      <c r="K99" s="48"/>
+      <c r="L99" s="48"/>
+      <c r="M99" s="48"/>
+      <c r="N99" s="48"/>
+    </row>
+    <row r="100" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A100" s="48"/>
+      <c r="B100" s="48"/>
+      <c r="C100" s="48"/>
+      <c r="D100" s="48"/>
+      <c r="E100" s="48"/>
+      <c r="F100" s="48"/>
+      <c r="G100" s="48"/>
+      <c r="H100" s="48"/>
+      <c r="I100" s="48"/>
+      <c r="J100" s="48"/>
+      <c r="K100" s="48"/>
+      <c r="L100" s="48"/>
+      <c r="M100" s="48"/>
+      <c r="N100" s="48"/>
+    </row>
+    <row r="101" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A101" s="48"/>
+      <c r="B101" s="48"/>
+      <c r="C101" s="48"/>
+      <c r="D101" s="48"/>
+      <c r="E101" s="48"/>
+      <c r="F101" s="48"/>
+      <c r="G101" s="48"/>
+      <c r="H101" s="48"/>
+      <c r="I101" s="48"/>
+      <c r="J101" s="48"/>
+      <c r="K101" s="48"/>
+      <c r="L101" s="48"/>
+      <c r="M101" s="48"/>
+      <c r="N101" s="48"/>
+    </row>
+    <row r="102" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A102" s="48"/>
+      <c r="B102" s="48"/>
+      <c r="C102" s="48"/>
+      <c r="D102" s="48"/>
+      <c r="E102" s="48"/>
+      <c r="F102" s="48"/>
+      <c r="G102" s="48"/>
+      <c r="H102" s="48"/>
+      <c r="I102" s="48"/>
+      <c r="J102" s="48"/>
+      <c r="K102" s="48"/>
+      <c r="L102" s="48"/>
+      <c r="M102" s="48"/>
+      <c r="N102" s="48"/>
+    </row>
+    <row r="103" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A103" s="48"/>
+      <c r="B103" s="48"/>
+      <c r="C103" s="48"/>
+      <c r="D103" s="48"/>
+      <c r="E103" s="48"/>
+      <c r="F103" s="48"/>
+      <c r="G103" s="48"/>
+      <c r="H103" s="48"/>
+      <c r="I103" s="48"/>
+      <c r="J103" s="48"/>
+      <c r="K103" s="48"/>
+      <c r="L103" s="48"/>
+      <c r="M103" s="48"/>
+      <c r="N103" s="48"/>
+    </row>
+    <row r="104" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A104" s="48"/>
+      <c r="B104" s="48"/>
+      <c r="C104" s="48"/>
+      <c r="D104" s="48"/>
+      <c r="E104" s="48"/>
+      <c r="F104" s="48"/>
+      <c r="G104" s="48"/>
+      <c r="H104" s="48"/>
+      <c r="I104" s="48"/>
+      <c r="J104" s="48"/>
+      <c r="K104" s="48"/>
+      <c r="L104" s="48"/>
+      <c r="M104" s="48"/>
+      <c r="N104" s="48"/>
+    </row>
+    <row r="105" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A105" s="48"/>
+      <c r="B105" s="48"/>
+      <c r="C105" s="48"/>
+      <c r="D105" s="48"/>
+      <c r="E105" s="48"/>
+      <c r="F105" s="48"/>
+      <c r="G105" s="48"/>
+      <c r="H105" s="48"/>
+      <c r="I105" s="48"/>
+      <c r="J105" s="48"/>
+      <c r="K105" s="48"/>
+      <c r="L105" s="48"/>
+      <c r="M105" s="48"/>
+      <c r="N105" s="48"/>
+    </row>
+    <row r="106" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A106" s="48"/>
+      <c r="B106" s="48"/>
+      <c r="C106" s="48"/>
+      <c r="D106" s="48"/>
+      <c r="E106" s="48"/>
+      <c r="F106" s="48"/>
+      <c r="G106" s="48"/>
+      <c r="H106" s="48"/>
+      <c r="I106" s="48"/>
+      <c r="J106" s="48"/>
+      <c r="K106" s="48"/>
+      <c r="L106" s="48"/>
+      <c r="M106" s="48"/>
+      <c r="N106" s="48"/>
+    </row>
+    <row r="107" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A107" s="48"/>
+      <c r="B107" s="48"/>
+      <c r="C107" s="48"/>
+      <c r="D107" s="48"/>
+      <c r="E107" s="48"/>
+      <c r="F107" s="48"/>
+      <c r="G107" s="48"/>
+      <c r="H107" s="48"/>
+      <c r="I107" s="48"/>
+      <c r="J107" s="48"/>
+      <c r="K107" s="48"/>
+      <c r="L107" s="48"/>
+      <c r="M107" s="48"/>
+      <c r="N107" s="48"/>
+    </row>
+    <row r="108" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A108" s="48"/>
+      <c r="B108" s="48"/>
+      <c r="C108" s="48"/>
+      <c r="D108" s="48"/>
+      <c r="E108" s="48"/>
+      <c r="F108" s="48"/>
+      <c r="G108" s="48"/>
+      <c r="H108" s="48"/>
+      <c r="I108" s="48"/>
+      <c r="J108" s="48"/>
+      <c r="K108" s="48"/>
+      <c r="L108" s="48"/>
+      <c r="M108" s="48"/>
+      <c r="N108" s="48"/>
+    </row>
+    <row r="109" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A109" s="48"/>
+      <c r="B109" s="48"/>
+      <c r="C109" s="48"/>
+      <c r="D109" s="48"/>
+      <c r="E109" s="48"/>
+      <c r="F109" s="48"/>
+      <c r="G109" s="48"/>
+      <c r="H109" s="48"/>
+      <c r="I109" s="48"/>
+      <c r="J109" s="48"/>
+      <c r="K109" s="48"/>
+      <c r="L109" s="48"/>
+      <c r="M109" s="48"/>
+      <c r="N109" s="48"/>
+    </row>
+    <row r="110" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A110" s="48"/>
+      <c r="B110" s="48"/>
+      <c r="C110" s="48"/>
+      <c r="D110" s="48"/>
+      <c r="E110" s="48"/>
+      <c r="F110" s="48"/>
+      <c r="G110" s="48"/>
+      <c r="H110" s="48"/>
+      <c r="I110" s="48"/>
+      <c r="J110" s="48"/>
+      <c r="K110" s="48"/>
+      <c r="L110" s="48"/>
+      <c r="M110" s="48"/>
+      <c r="N110" s="48"/>
+    </row>
+    <row r="111" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A111" s="48"/>
+      <c r="B111" s="48"/>
+      <c r="C111" s="48"/>
+      <c r="D111" s="48"/>
+      <c r="E111" s="48"/>
+      <c r="F111" s="48"/>
+      <c r="G111" s="48"/>
+      <c r="H111" s="48"/>
+      <c r="I111" s="48"/>
+      <c r="J111" s="48"/>
+      <c r="K111" s="48"/>
+      <c r="L111" s="48"/>
+      <c r="M111" s="48"/>
+      <c r="N111" s="48"/>
+    </row>
+    <row r="112" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A112" s="48"/>
+      <c r="B112" s="48"/>
+      <c r="C112" s="48"/>
+      <c r="D112" s="48"/>
+      <c r="E112" s="48"/>
+      <c r="F112" s="48"/>
+      <c r="G112" s="48"/>
+      <c r="H112" s="48"/>
+      <c r="I112" s="48"/>
+      <c r="J112" s="48"/>
+      <c r="K112" s="48"/>
+      <c r="L112" s="48"/>
+      <c r="M112" s="48"/>
+      <c r="N112" s="48"/>
+    </row>
+    <row r="113" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A113" s="48"/>
+      <c r="B113" s="48"/>
+      <c r="C113" s="48"/>
+      <c r="D113" s="48"/>
+      <c r="E113" s="48"/>
+      <c r="F113" s="48"/>
+      <c r="G113" s="48"/>
+      <c r="H113" s="48"/>
+      <c r="I113" s="48"/>
+      <c r="J113" s="48"/>
+      <c r="K113" s="48"/>
+      <c r="L113" s="48"/>
+      <c r="M113" s="48"/>
+      <c r="N113" s="48"/>
+    </row>
+    <row r="114" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A114" s="48"/>
+      <c r="B114" s="48"/>
+      <c r="C114" s="48"/>
+      <c r="D114" s="48"/>
+      <c r="E114" s="48"/>
+      <c r="F114" s="48"/>
+      <c r="G114" s="48"/>
+      <c r="H114" s="48"/>
+      <c r="I114" s="48"/>
+      <c r="J114" s="48"/>
+      <c r="K114" s="48"/>
+      <c r="L114" s="48"/>
+      <c r="M114" s="48"/>
+      <c r="N114" s="48"/>
+    </row>
+    <row r="115" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A115" s="48"/>
+      <c r="B115" s="48"/>
+      <c r="C115" s="48"/>
+      <c r="D115" s="48"/>
+      <c r="E115" s="48"/>
+      <c r="F115" s="48"/>
+      <c r="G115" s="48"/>
+      <c r="H115" s="48"/>
+      <c r="I115" s="48"/>
+      <c r="J115" s="48"/>
+      <c r="K115" s="48"/>
+      <c r="L115" s="48"/>
+      <c r="M115" s="48"/>
+      <c r="N115" s="48"/>
+    </row>
+    <row r="116" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A116" s="48"/>
+      <c r="B116" s="48"/>
+      <c r="C116" s="48"/>
+      <c r="D116" s="48"/>
+      <c r="E116" s="48"/>
+      <c r="F116" s="48"/>
+      <c r="G116" s="48"/>
+      <c r="H116" s="48"/>
+      <c r="I116" s="48"/>
+      <c r="J116" s="48"/>
+      <c r="K116" s="48"/>
+      <c r="L116" s="48"/>
+      <c r="M116" s="48"/>
+      <c r="N116" s="48"/>
+    </row>
+    <row r="117" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A117" s="48"/>
+      <c r="B117" s="48"/>
+      <c r="C117" s="48"/>
+      <c r="D117" s="48"/>
+      <c r="E117" s="48"/>
+      <c r="F117" s="48"/>
+      <c r="G117" s="48"/>
+      <c r="H117" s="48"/>
+      <c r="I117" s="48"/>
+      <c r="J117" s="48"/>
+      <c r="K117" s="48"/>
+      <c r="L117" s="48"/>
+      <c r="M117" s="48"/>
+      <c r="N117" s="48"/>
+    </row>
+    <row r="118" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A118" s="48"/>
+      <c r="B118" s="48"/>
+      <c r="C118" s="48"/>
+      <c r="D118" s="48"/>
+      <c r="E118" s="48"/>
+      <c r="F118" s="48"/>
+      <c r="G118" s="48"/>
+      <c r="H118" s="48"/>
+      <c r="I118" s="48"/>
+      <c r="J118" s="48"/>
+      <c r="K118" s="48"/>
+      <c r="L118" s="48"/>
+      <c r="M118" s="48"/>
+      <c r="N118" s="48"/>
+    </row>
+    <row r="119" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A119" s="48"/>
+      <c r="B119" s="48"/>
+      <c r="C119" s="48"/>
+      <c r="D119" s="48"/>
+      <c r="E119" s="48"/>
+      <c r="F119" s="48"/>
+      <c r="G119" s="48"/>
+      <c r="H119" s="48"/>
+      <c r="I119" s="48"/>
+      <c r="J119" s="48"/>
+      <c r="K119" s="48"/>
+      <c r="L119" s="48"/>
+      <c r="M119" s="48"/>
+      <c r="N119" s="48"/>
+    </row>
+    <row r="120" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A120" s="48"/>
+      <c r="B120" s="48"/>
+      <c r="C120" s="48"/>
+      <c r="D120" s="48"/>
+      <c r="E120" s="48"/>
+      <c r="F120" s="48"/>
+      <c r="G120" s="48"/>
+      <c r="H120" s="48"/>
+      <c r="I120" s="48"/>
+      <c r="J120" s="48"/>
+      <c r="K120" s="48"/>
+      <c r="L120" s="48"/>
+      <c r="M120" s="48"/>
+      <c r="N120" s="48"/>
+    </row>
+    <row r="121" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A121" s="48"/>
+      <c r="B121" s="48"/>
+      <c r="C121" s="48"/>
+      <c r="D121" s="48"/>
+      <c r="E121" s="48"/>
+      <c r="F121" s="48"/>
+      <c r="G121" s="48"/>
+      <c r="H121" s="48"/>
+      <c r="I121" s="48"/>
+      <c r="J121" s="48"/>
+      <c r="K121" s="48"/>
+      <c r="L121" s="48"/>
+      <c r="M121" s="48"/>
+      <c r="N121" s="48"/>
+    </row>
+    <row r="122" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A122" s="48"/>
+      <c r="B122" s="48"/>
+      <c r="C122" s="48"/>
+      <c r="D122" s="48"/>
+      <c r="E122" s="48"/>
+      <c r="F122" s="48"/>
+      <c r="G122" s="48"/>
+      <c r="H122" s="48"/>
+      <c r="I122" s="48"/>
+      <c r="J122" s="48"/>
+      <c r="K122" s="48"/>
+      <c r="L122" s="48"/>
+      <c r="M122" s="48"/>
+      <c r="N122" s="48"/>
+    </row>
+    <row r="123" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A123" s="48"/>
+      <c r="B123" s="48"/>
+      <c r="C123" s="48"/>
+      <c r="D123" s="48"/>
+      <c r="E123" s="48"/>
+      <c r="F123" s="48"/>
+      <c r="G123" s="48"/>
+      <c r="H123" s="48"/>
+      <c r="I123" s="48"/>
+      <c r="J123" s="48"/>
+      <c r="K123" s="48"/>
+      <c r="L123" s="48"/>
+      <c r="M123" s="48"/>
+      <c r="N123" s="48"/>
+    </row>
+    <row r="124" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A124" s="48"/>
+      <c r="B124" s="48"/>
+      <c r="C124" s="48"/>
+      <c r="D124" s="48"/>
+      <c r="E124" s="48"/>
+      <c r="F124" s="48"/>
+      <c r="G124" s="48"/>
+      <c r="H124" s="48"/>
+      <c r="I124" s="48"/>
+      <c r="J124" s="48"/>
+      <c r="K124" s="48"/>
+      <c r="L124" s="48"/>
+      <c r="M124" s="48"/>
+      <c r="N124" s="48"/>
+    </row>
+    <row r="125" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A125" s="48"/>
+      <c r="B125" s="48"/>
+      <c r="C125" s="48"/>
+      <c r="D125" s="48"/>
+      <c r="E125" s="48"/>
+      <c r="F125" s="48"/>
+      <c r="G125" s="48"/>
+      <c r="H125" s="48"/>
+      <c r="I125" s="48"/>
+      <c r="J125" s="48"/>
+      <c r="K125" s="48"/>
+      <c r="L125" s="48"/>
+      <c r="M125" s="48"/>
+      <c r="N125" s="48"/>
+    </row>
+    <row r="126" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A126" s="48"/>
+      <c r="B126" s="48"/>
+      <c r="C126" s="48"/>
+      <c r="D126" s="48"/>
+      <c r="E126" s="48"/>
+      <c r="F126" s="48"/>
+      <c r="G126" s="48"/>
+      <c r="H126" s="48"/>
+      <c r="I126" s="48"/>
+      <c r="J126" s="48"/>
+      <c r="K126" s="48"/>
+      <c r="L126" s="48"/>
+      <c r="M126" s="48"/>
+      <c r="N126" s="48"/>
+    </row>
+    <row r="127" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A127" s="48"/>
+      <c r="B127" s="48"/>
+      <c r="C127" s="48"/>
+      <c r="D127" s="48"/>
+      <c r="E127" s="48"/>
+      <c r="F127" s="48"/>
+      <c r="G127" s="48"/>
+      <c r="H127" s="48"/>
+      <c r="I127" s="48"/>
+      <c r="J127" s="48"/>
+      <c r="K127" s="48"/>
+      <c r="L127" s="48"/>
+      <c r="M127" s="48"/>
+      <c r="N127" s="48"/>
+    </row>
+    <row r="128" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A128" s="48"/>
+      <c r="B128" s="48"/>
+      <c r="C128" s="48"/>
+      <c r="D128" s="48"/>
+      <c r="E128" s="48"/>
+      <c r="F128" s="48"/>
+      <c r="G128" s="48"/>
+      <c r="H128" s="48"/>
+      <c r="I128" s="48"/>
+      <c r="J128" s="48"/>
+      <c r="K128" s="48"/>
+      <c r="L128" s="48"/>
+      <c r="M128" s="48"/>
+      <c r="N128" s="48"/>
+    </row>
+    <row r="129" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A129" s="48"/>
+      <c r="B129" s="48"/>
+      <c r="C129" s="48"/>
+      <c r="D129" s="48"/>
+      <c r="E129" s="48"/>
+      <c r="F129" s="48"/>
+      <c r="G129" s="48"/>
+      <c r="H129" s="48"/>
+      <c r="I129" s="48"/>
+      <c r="J129" s="48"/>
+      <c r="K129" s="48"/>
+      <c r="L129" s="48"/>
+      <c r="M129" s="48"/>
+      <c r="N129" s="48"/>
+    </row>
+    <row r="130" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A130" s="48"/>
+      <c r="B130" s="48"/>
+      <c r="C130" s="48"/>
+      <c r="D130" s="48"/>
+      <c r="E130" s="48"/>
+      <c r="F130" s="48"/>
+      <c r="G130" s="48"/>
+      <c r="H130" s="48"/>
+      <c r="I130" s="48"/>
+      <c r="J130" s="48"/>
+      <c r="K130" s="48"/>
+      <c r="L130" s="48"/>
+      <c r="M130" s="48"/>
+      <c r="N130" s="48"/>
+    </row>
+    <row r="131" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A131" s="48"/>
+      <c r="B131" s="48"/>
+      <c r="C131" s="48"/>
+      <c r="D131" s="48"/>
+      <c r="E131" s="48"/>
+      <c r="F131" s="48"/>
+      <c r="G131" s="48"/>
+      <c r="H131" s="48"/>
+      <c r="I131" s="48"/>
+      <c r="J131" s="48"/>
+      <c r="K131" s="48"/>
+      <c r="L131" s="48"/>
+      <c r="M131" s="48"/>
+      <c r="N131" s="48"/>
+    </row>
+    <row r="132" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A132" s="48"/>
+      <c r="B132" s="48"/>
+      <c r="C132" s="48"/>
+      <c r="D132" s="48"/>
+      <c r="E132" s="48"/>
+      <c r="F132" s="48"/>
+      <c r="G132" s="48"/>
+      <c r="H132" s="48"/>
+      <c r="I132" s="48"/>
+      <c r="J132" s="48"/>
+      <c r="K132" s="48"/>
+      <c r="L132" s="48"/>
+      <c r="M132" s="48"/>
+      <c r="N132" s="48"/>
+    </row>
+    <row r="133" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A133" s="48"/>
+      <c r="B133" s="48"/>
+      <c r="C133" s="48"/>
+      <c r="D133" s="48"/>
+      <c r="E133" s="48"/>
+      <c r="F133" s="48"/>
+      <c r="G133" s="48"/>
+      <c r="H133" s="48"/>
+      <c r="I133" s="48"/>
+      <c r="J133" s="48"/>
+      <c r="K133" s="48"/>
+      <c r="L133" s="48"/>
+      <c r="M133" s="48"/>
+      <c r="N133" s="48"/>
+    </row>
+    <row r="134" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A134" s="48"/>
+      <c r="B134" s="48"/>
+      <c r="C134" s="48"/>
+      <c r="D134" s="48"/>
+      <c r="E134" s="48"/>
+      <c r="F134" s="48"/>
+      <c r="G134" s="48"/>
+      <c r="H134" s="48"/>
+      <c r="I134" s="48"/>
+      <c r="J134" s="48"/>
+      <c r="K134" s="48"/>
+      <c r="L134" s="48"/>
+      <c r="M134" s="48"/>
+      <c r="N134" s="48"/>
+    </row>
+    <row r="135" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A135" s="48"/>
+      <c r="B135" s="48"/>
+      <c r="C135" s="48"/>
+      <c r="D135" s="48"/>
+      <c r="E135" s="48"/>
+      <c r="F135" s="48"/>
+      <c r="G135" s="48"/>
+      <c r="H135" s="48"/>
+      <c r="I135" s="48"/>
+      <c r="J135" s="48"/>
+      <c r="K135" s="48"/>
+      <c r="L135" s="48"/>
+      <c r="M135" s="48"/>
+      <c r="N135" s="48"/>
+    </row>
+    <row r="136" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A136" s="48"/>
+      <c r="B136" s="48"/>
+      <c r="C136" s="48"/>
+      <c r="D136" s="48"/>
+      <c r="E136" s="48"/>
+      <c r="F136" s="48"/>
+      <c r="G136" s="48"/>
+      <c r="H136" s="48"/>
+      <c r="I136" s="48"/>
+      <c r="J136" s="48"/>
+      <c r="K136" s="48"/>
+      <c r="L136" s="48"/>
+      <c r="M136" s="48"/>
+      <c r="N136" s="48"/>
+    </row>
+    <row r="137" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A137" s="48"/>
+      <c r="B137" s="48"/>
+      <c r="C137" s="48"/>
+      <c r="D137" s="48"/>
+      <c r="E137" s="48"/>
+      <c r="F137" s="48"/>
+      <c r="G137" s="48"/>
+      <c r="H137" s="48"/>
+      <c r="I137" s="48"/>
+      <c r="J137" s="48"/>
+      <c r="K137" s="48"/>
+      <c r="L137" s="48"/>
+      <c r="M137" s="48"/>
+      <c r="N137" s="48"/>
+    </row>
+    <row r="138" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A138" s="48"/>
+      <c r="B138" s="48"/>
+      <c r="C138" s="48"/>
+      <c r="D138" s="48"/>
+      <c r="E138" s="48"/>
+      <c r="F138" s="48"/>
+      <c r="G138" s="48"/>
+      <c r="H138" s="48"/>
+      <c r="I138" s="48"/>
+      <c r="J138" s="48"/>
+      <c r="K138" s="48"/>
+      <c r="L138" s="48"/>
+      <c r="M138" s="48"/>
+      <c r="N138" s="48"/>
+    </row>
+    <row r="139" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A139" s="48"/>
+      <c r="B139" s="48"/>
+      <c r="C139" s="48"/>
+      <c r="D139" s="48"/>
+      <c r="E139" s="48"/>
+      <c r="F139" s="48"/>
+      <c r="G139" s="48"/>
+      <c r="H139" s="48"/>
+      <c r="I139" s="48"/>
+      <c r="J139" s="48"/>
+      <c r="K139" s="48"/>
+      <c r="L139" s="48"/>
+      <c r="M139" s="48"/>
+      <c r="N139" s="48"/>
+    </row>
+    <row r="140" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A140" s="48"/>
+      <c r="B140" s="48"/>
+      <c r="C140" s="48"/>
+      <c r="D140" s="48"/>
+      <c r="E140" s="48"/>
+      <c r="F140" s="48"/>
+      <c r="G140" s="48"/>
+      <c r="H140" s="48"/>
+      <c r="I140" s="48"/>
+      <c r="J140" s="48"/>
+      <c r="K140" s="48"/>
+      <c r="L140" s="48"/>
+      <c r="M140" s="48"/>
+      <c r="N140" s="48"/>
+    </row>
+    <row r="141" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A141" s="48"/>
+      <c r="B141" s="48"/>
+      <c r="C141" s="48"/>
+      <c r="D141" s="48"/>
+      <c r="E141" s="48"/>
+      <c r="F141" s="48"/>
+      <c r="G141" s="48"/>
+      <c r="H141" s="48"/>
+      <c r="I141" s="48"/>
+      <c r="J141" s="48"/>
+      <c r="K141" s="48"/>
+      <c r="L141" s="48"/>
+      <c r="M141" s="48"/>
+      <c r="N141" s="48"/>
+    </row>
+    <row r="142" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A142" s="48"/>
+      <c r="B142" s="48"/>
+      <c r="C142" s="48"/>
+      <c r="D142" s="48"/>
+      <c r="E142" s="48"/>
+      <c r="F142" s="48"/>
+      <c r="G142" s="48"/>
+      <c r="H142" s="48"/>
+      <c r="I142" s="48"/>
+      <c r="J142" s="48"/>
+      <c r="K142" s="48"/>
+      <c r="L142" s="48"/>
+      <c r="M142" s="48"/>
+      <c r="N142" s="48"/>
+    </row>
+    <row r="143" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A143" s="48"/>
+      <c r="B143" s="48"/>
+      <c r="C143" s="48"/>
+      <c r="D143" s="48"/>
+      <c r="E143" s="48"/>
+      <c r="F143" s="48"/>
+      <c r="G143" s="48"/>
+      <c r="H143" s="48"/>
+      <c r="I143" s="48"/>
+      <c r="J143" s="48"/>
+      <c r="K143" s="48"/>
+      <c r="L143" s="48"/>
+      <c r="M143" s="48"/>
+      <c r="N143" s="48"/>
+    </row>
+    <row r="144" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A144" s="48"/>
+      <c r="B144" s="48"/>
+      <c r="C144" s="48"/>
+      <c r="D144" s="48"/>
+      <c r="E144" s="48"/>
+      <c r="F144" s="48"/>
+      <c r="G144" s="48"/>
+      <c r="H144" s="48"/>
+      <c r="I144" s="48"/>
+      <c r="J144" s="48"/>
+      <c r="K144" s="48"/>
+      <c r="L144" s="48"/>
+      <c r="M144" s="48"/>
+      <c r="N144" s="48"/>
+    </row>
+    <row r="145" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A145" s="48"/>
+      <c r="B145" s="48"/>
+      <c r="C145" s="48"/>
+      <c r="D145" s="48"/>
+      <c r="E145" s="48"/>
+      <c r="F145" s="48"/>
+      <c r="G145" s="48"/>
+      <c r="H145" s="48"/>
+      <c r="I145" s="48"/>
+      <c r="J145" s="48"/>
+      <c r="K145" s="48"/>
+      <c r="L145" s="48"/>
+      <c r="M145" s="48"/>
+      <c r="N145" s="48"/>
+    </row>
+    <row r="146" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A146" s="48"/>
+      <c r="B146" s="48"/>
+      <c r="C146" s="48"/>
+      <c r="D146" s="48"/>
+      <c r="E146" s="48"/>
+      <c r="F146" s="48"/>
+      <c r="G146" s="48"/>
+      <c r="H146" s="48"/>
+      <c r="I146" s="48"/>
+      <c r="J146" s="48"/>
+      <c r="K146" s="48"/>
+      <c r="L146" s="48"/>
+      <c r="M146" s="48"/>
+      <c r="N146" s="48"/>
+    </row>
+    <row r="147" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A147" s="48"/>
+      <c r="B147" s="48"/>
+      <c r="C147" s="48"/>
+      <c r="D147" s="48"/>
+      <c r="E147" s="48"/>
+      <c r="F147" s="48"/>
+      <c r="G147" s="48"/>
+      <c r="H147" s="48"/>
+      <c r="I147" s="48"/>
+      <c r="J147" s="48"/>
+      <c r="K147" s="48"/>
+      <c r="L147" s="48"/>
+      <c r="M147" s="48"/>
+      <c r="N147" s="48"/>
+    </row>
+    <row r="148" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A148" s="48"/>
+      <c r="B148" s="48"/>
+      <c r="C148" s="48"/>
+      <c r="D148" s="48"/>
+      <c r="E148" s="48"/>
+      <c r="F148" s="48"/>
+      <c r="G148" s="48"/>
+      <c r="H148" s="48"/>
+      <c r="I148" s="48"/>
+      <c r="J148" s="48"/>
+      <c r="K148" s="48"/>
+      <c r="L148" s="48"/>
+      <c r="M148" s="48"/>
+      <c r="N148" s="48"/>
+    </row>
+    <row r="149" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A149" s="48"/>
+      <c r="B149" s="48"/>
+      <c r="C149" s="48"/>
+      <c r="D149" s="48"/>
+      <c r="E149" s="48"/>
+      <c r="F149" s="48"/>
+      <c r="G149" s="48"/>
+      <c r="H149" s="48"/>
+      <c r="I149" s="48"/>
+      <c r="J149" s="48"/>
+      <c r="K149" s="48"/>
+      <c r="L149" s="48"/>
+      <c r="M149" s="48"/>
+      <c r="N149" s="48"/>
+    </row>
+    <row r="150" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A150" s="48"/>
+      <c r="B150" s="48"/>
+      <c r="C150" s="48"/>
+      <c r="D150" s="48"/>
+      <c r="E150" s="48"/>
+      <c r="F150" s="48"/>
+      <c r="G150" s="48"/>
+      <c r="H150" s="48"/>
+      <c r="I150" s="48"/>
+      <c r="J150" s="48"/>
+      <c r="K150" s="48"/>
+      <c r="L150" s="48"/>
+      <c r="M150" s="48"/>
+      <c r="N150" s="48"/>
+    </row>
+    <row r="151" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A151" s="48"/>
+      <c r="B151" s="48"/>
+      <c r="C151" s="48"/>
+      <c r="D151" s="48"/>
+      <c r="E151" s="48"/>
+      <c r="F151" s="48"/>
+      <c r="G151" s="48"/>
+      <c r="H151" s="48"/>
+      <c r="I151" s="48"/>
+      <c r="J151" s="48"/>
+      <c r="K151" s="48"/>
+      <c r="L151" s="48"/>
+      <c r="M151" s="48"/>
+      <c r="N151" s="48"/>
+    </row>
+    <row r="152" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A152" s="48"/>
+      <c r="B152" s="48"/>
+      <c r="C152" s="48"/>
+      <c r="D152" s="48"/>
+      <c r="E152" s="48"/>
+      <c r="F152" s="48"/>
+      <c r="G152" s="48"/>
+      <c r="H152" s="48"/>
+      <c r="I152" s="48"/>
+      <c r="J152" s="48"/>
+      <c r="K152" s="48"/>
+      <c r="L152" s="48"/>
+      <c r="M152" s="48"/>
+      <c r="N152" s="48"/>
+    </row>
+    <row r="153" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A153" s="48"/>
+      <c r="B153" s="48"/>
+      <c r="C153" s="48"/>
+      <c r="D153" s="48"/>
+      <c r="E153" s="48"/>
+      <c r="F153" s="48"/>
+      <c r="G153" s="48"/>
+      <c r="H153" s="48"/>
+      <c r="I153" s="48"/>
+      <c r="J153" s="48"/>
+      <c r="K153" s="48"/>
+      <c r="L153" s="48"/>
+      <c r="M153" s="48"/>
+      <c r="N153" s="48"/>
+    </row>
+    <row r="154" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A154" s="48"/>
+      <c r="B154" s="48"/>
+      <c r="C154" s="48"/>
+      <c r="D154" s="48"/>
+      <c r="E154" s="48"/>
+      <c r="F154" s="48"/>
+      <c r="G154" s="48"/>
+      <c r="H154" s="48"/>
+      <c r="I154" s="48"/>
+      <c r="J154" s="48"/>
+      <c r="K154" s="48"/>
+      <c r="L154" s="48"/>
+      <c r="M154" s="48"/>
+      <c r="N154" s="48"/>
+    </row>
+    <row r="155" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A155" s="48"/>
+      <c r="B155" s="48"/>
+      <c r="C155" s="48"/>
+      <c r="D155" s="48"/>
+      <c r="E155" s="48"/>
+      <c r="F155" s="48"/>
+      <c r="G155" s="48"/>
+      <c r="H155" s="48"/>
+      <c r="I155" s="48"/>
+      <c r="J155" s="48"/>
+      <c r="K155" s="48"/>
+      <c r="L155" s="48"/>
+      <c r="M155" s="48"/>
+      <c r="N155" s="48"/>
+    </row>
+    <row r="156" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A156" s="48"/>
+      <c r="B156" s="48"/>
+      <c r="C156" s="48"/>
+      <c r="D156" s="48"/>
+      <c r="E156" s="48"/>
+      <c r="F156" s="48"/>
+      <c r="G156" s="48"/>
+      <c r="H156" s="48"/>
+      <c r="I156" s="48"/>
+      <c r="J156" s="48"/>
+      <c r="K156" s="48"/>
+      <c r="L156" s="48"/>
+      <c r="M156" s="48"/>
+      <c r="N156" s="48"/>
+    </row>
+    <row r="157" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A157" s="48"/>
+      <c r="B157" s="48"/>
+      <c r="C157" s="48"/>
+      <c r="D157" s="48"/>
+      <c r="E157" s="48"/>
+      <c r="F157" s="48"/>
+      <c r="G157" s="48"/>
+      <c r="H157" s="48"/>
+      <c r="I157" s="48"/>
+      <c r="J157" s="48"/>
+      <c r="K157" s="48"/>
+      <c r="L157" s="48"/>
+      <c r="M157" s="48"/>
+      <c r="N157" s="48"/>
+    </row>
+    <row r="158" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A158" s="48"/>
+      <c r="B158" s="48"/>
+      <c r="C158" s="48"/>
+      <c r="D158" s="48"/>
+      <c r="E158" s="48"/>
+      <c r="F158" s="48"/>
+      <c r="G158" s="48"/>
+      <c r="H158" s="48"/>
+      <c r="I158" s="48"/>
+      <c r="J158" s="48"/>
+      <c r="K158" s="48"/>
+      <c r="L158" s="48"/>
+      <c r="M158" s="48"/>
+      <c r="N158" s="48"/>
+    </row>
+    <row r="159" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A159" s="48"/>
+      <c r="B159" s="48"/>
+      <c r="C159" s="48"/>
+      <c r="D159" s="48"/>
+      <c r="E159" s="48"/>
+      <c r="F159" s="48"/>
+      <c r="G159" s="48"/>
+      <c r="H159" s="48"/>
+      <c r="I159" s="48"/>
+      <c r="J159" s="48"/>
+      <c r="K159" s="48"/>
+      <c r="L159" s="48"/>
+      <c r="M159" s="48"/>
+      <c r="N159" s="48"/>
+    </row>
+    <row r="160" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A160" s="48"/>
+      <c r="B160" s="48"/>
+      <c r="C160" s="48"/>
+      <c r="D160" s="48"/>
+      <c r="E160" s="48"/>
+      <c r="F160" s="48"/>
+      <c r="G160" s="48"/>
+      <c r="H160" s="48"/>
+      <c r="I160" s="48"/>
+      <c r="J160" s="48"/>
+      <c r="K160" s="48"/>
+      <c r="L160" s="48"/>
+      <c r="M160" s="48"/>
+      <c r="N160" s="48"/>
+    </row>
+    <row r="161" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A161" s="48"/>
+      <c r="B161" s="48"/>
+      <c r="C161" s="48"/>
+      <c r="D161" s="48"/>
+      <c r="E161" s="48"/>
+      <c r="F161" s="48"/>
+      <c r="G161" s="48"/>
+      <c r="H161" s="48"/>
+      <c r="I161" s="48"/>
+      <c r="J161" s="48"/>
+      <c r="K161" s="48"/>
+      <c r="L161" s="48"/>
+      <c r="M161" s="48"/>
+      <c r="N161" s="48"/>
+    </row>
+    <row r="162" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A162" s="48"/>
+      <c r="B162" s="48"/>
+      <c r="C162" s="48"/>
+      <c r="D162" s="48"/>
+      <c r="E162" s="48"/>
+      <c r="F162" s="48"/>
+      <c r="G162" s="48"/>
+      <c r="H162" s="48"/>
+      <c r="I162" s="48"/>
+      <c r="J162" s="48"/>
+      <c r="K162" s="48"/>
+      <c r="L162" s="48"/>
+      <c r="M162" s="48"/>
+      <c r="N162" s="48"/>
+    </row>
+    <row r="163" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A163" s="48"/>
+      <c r="B163" s="48"/>
+      <c r="C163" s="48"/>
+      <c r="D163" s="48"/>
+      <c r="E163" s="48"/>
+      <c r="F163" s="48"/>
+      <c r="G163" s="48"/>
+      <c r="H163" s="48"/>
+      <c r="I163" s="48"/>
+      <c r="J163" s="48"/>
+      <c r="K163" s="48"/>
+      <c r="L163" s="48"/>
+      <c r="M163" s="48"/>
+      <c r="N163" s="48"/>
+    </row>
+    <row r="164" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A164" s="48"/>
+      <c r="B164" s="48"/>
+      <c r="C164" s="48"/>
+      <c r="D164" s="48"/>
+      <c r="E164" s="48"/>
+      <c r="F164" s="48"/>
+      <c r="G164" s="48"/>
+      <c r="H164" s="48"/>
+      <c r="I164" s="48"/>
+      <c r="J164" s="48"/>
+      <c r="K164" s="48"/>
+      <c r="L164" s="48"/>
+      <c r="M164" s="48"/>
+      <c r="N164" s="48"/>
+    </row>
+    <row r="165" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A165" s="48"/>
+      <c r="B165" s="48"/>
+      <c r="C165" s="48"/>
+      <c r="D165" s="48"/>
+      <c r="E165" s="48"/>
+      <c r="F165" s="48"/>
+      <c r="G165" s="48"/>
+      <c r="H165" s="48"/>
+      <c r="I165" s="48"/>
+      <c r="J165" s="48"/>
+      <c r="K165" s="48"/>
+      <c r="L165" s="48"/>
+      <c r="M165" s="48"/>
+      <c r="N165" s="48"/>
+    </row>
+    <row r="166" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A166" s="48"/>
+      <c r="B166" s="48"/>
+      <c r="C166" s="48"/>
+      <c r="D166" s="48"/>
+      <c r="E166" s="48"/>
+      <c r="F166" s="48"/>
+      <c r="G166" s="48"/>
+      <c r="H166" s="48"/>
+      <c r="I166" s="48"/>
+      <c r="J166" s="48"/>
+      <c r="K166" s="48"/>
+      <c r="L166" s="48"/>
+      <c r="M166" s="48"/>
+      <c r="N166" s="48"/>
+    </row>
+    <row r="167" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A167" s="48"/>
+      <c r="B167" s="48"/>
+      <c r="C167" s="48"/>
+      <c r="D167" s="48"/>
+      <c r="E167" s="48"/>
+      <c r="F167" s="48"/>
+      <c r="G167" s="48"/>
+      <c r="H167" s="48"/>
+      <c r="I167" s="48"/>
+      <c r="J167" s="48"/>
+      <c r="K167" s="48"/>
+      <c r="L167" s="48"/>
+      <c r="M167" s="48"/>
+      <c r="N167" s="48"/>
+    </row>
+    <row r="168" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A168" s="48"/>
+      <c r="B168" s="48"/>
+      <c r="C168" s="48"/>
+      <c r="D168" s="48"/>
+      <c r="E168" s="48"/>
+      <c r="F168" s="48"/>
+      <c r="G168" s="48"/>
+      <c r="H168" s="48"/>
+      <c r="I168" s="48"/>
+      <c r="J168" s="48"/>
+      <c r="K168" s="48"/>
+      <c r="L168" s="48"/>
+      <c r="M168" s="48"/>
+      <c r="N168" s="48"/>
+    </row>
+    <row r="169" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A169" s="48"/>
+      <c r="B169" s="48"/>
+      <c r="C169" s="48"/>
+      <c r="D169" s="48"/>
+      <c r="E169" s="48"/>
+      <c r="F169" s="48"/>
+      <c r="G169" s="48"/>
+      <c r="H169" s="48"/>
+      <c r="I169" s="48"/>
+      <c r="J169" s="48"/>
+      <c r="K169" s="48"/>
+      <c r="L169" s="48"/>
+      <c r="M169" s="48"/>
+      <c r="N169" s="48"/>
+    </row>
+    <row r="170" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A170" s="48"/>
+      <c r="B170" s="48"/>
+      <c r="C170" s="48"/>
+      <c r="D170" s="48"/>
+      <c r="E170" s="48"/>
+      <c r="F170" s="48"/>
+      <c r="G170" s="48"/>
+      <c r="H170" s="48"/>
+      <c r="I170" s="48"/>
+      <c r="J170" s="48"/>
+      <c r="K170" s="48"/>
+      <c r="L170" s="48"/>
+      <c r="M170" s="48"/>
+      <c r="N170" s="48"/>
+    </row>
+    <row r="171" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A171" s="48"/>
+      <c r="B171" s="48"/>
+      <c r="C171" s="48"/>
+      <c r="D171" s="48"/>
+      <c r="E171" s="48"/>
+      <c r="F171" s="48"/>
+      <c r="G171" s="48"/>
+      <c r="H171" s="48"/>
+      <c r="I171" s="48"/>
+      <c r="J171" s="48"/>
+      <c r="K171" s="48"/>
+      <c r="L171" s="48"/>
+      <c r="M171" s="48"/>
+      <c r="N171" s="48"/>
+    </row>
+    <row r="172" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A172" s="48"/>
+      <c r="B172" s="48"/>
+      <c r="C172" s="48"/>
+      <c r="D172" s="48"/>
+      <c r="E172" s="48"/>
+      <c r="F172" s="48"/>
+      <c r="G172" s="48"/>
+      <c r="H172" s="48"/>
+      <c r="I172" s="48"/>
+      <c r="J172" s="48"/>
+      <c r="K172" s="48"/>
+      <c r="L172" s="48"/>
+      <c r="M172" s="48"/>
+      <c r="N172" s="48"/>
+    </row>
+    <row r="173" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A173" s="48"/>
+      <c r="B173" s="48"/>
+      <c r="C173" s="48"/>
+      <c r="D173" s="48"/>
+      <c r="E173" s="48"/>
+      <c r="F173" s="48"/>
+      <c r="G173" s="48"/>
+      <c r="H173" s="48"/>
+      <c r="I173" s="48"/>
+      <c r="J173" s="48"/>
+      <c r="K173" s="48"/>
+      <c r="L173" s="48"/>
+      <c r="M173" s="48"/>
+      <c r="N173" s="48"/>
+    </row>
+    <row r="174" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A174" s="48"/>
+      <c r="B174" s="48"/>
+      <c r="C174" s="48"/>
+      <c r="D174" s="48"/>
+      <c r="E174" s="48"/>
+      <c r="F174" s="48"/>
+      <c r="G174" s="48"/>
+      <c r="H174" s="48"/>
+      <c r="I174" s="48"/>
+      <c r="J174" s="48"/>
+      <c r="K174" s="48"/>
+      <c r="L174" s="48"/>
+      <c r="M174" s="48"/>
+      <c r="N174" s="48"/>
+    </row>
+    <row r="175" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A175" s="48"/>
+      <c r="B175" s="48"/>
+      <c r="C175" s="48"/>
+      <c r="D175" s="48"/>
+      <c r="E175" s="48"/>
+      <c r="F175" s="48"/>
+      <c r="G175" s="48"/>
+      <c r="H175" s="48"/>
+      <c r="I175" s="48"/>
+      <c r="J175" s="48"/>
+      <c r="K175" s="48"/>
+      <c r="L175" s="48"/>
+      <c r="M175" s="48"/>
+      <c r="N175" s="48"/>
+    </row>
+    <row r="176" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A176" s="48"/>
+      <c r="B176" s="48"/>
+      <c r="C176" s="48"/>
+      <c r="D176" s="48"/>
+      <c r="E176" s="48"/>
+      <c r="F176" s="48"/>
+      <c r="G176" s="48"/>
+      <c r="H176" s="48"/>
+      <c r="I176" s="48"/>
+      <c r="J176" s="48"/>
+      <c r="K176" s="48"/>
+      <c r="L176" s="48"/>
+      <c r="M176" s="48"/>
+      <c r="N176" s="48"/>
+    </row>
+    <row r="177" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A177" s="48"/>
+      <c r="B177" s="48"/>
+      <c r="C177" s="48"/>
+      <c r="D177" s="48"/>
+      <c r="E177" s="48"/>
+      <c r="F177" s="48"/>
+      <c r="G177" s="48"/>
+      <c r="H177" s="48"/>
+      <c r="I177" s="48"/>
+      <c r="J177" s="48"/>
+      <c r="K177" s="48"/>
+      <c r="L177" s="48"/>
+      <c r="M177" s="48"/>
+      <c r="N177" s="48"/>
+    </row>
+    <row r="178" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A178" s="48"/>
+      <c r="B178" s="48"/>
+      <c r="C178" s="48"/>
+      <c r="D178" s="48"/>
+      <c r="E178" s="48"/>
+      <c r="F178" s="48"/>
+      <c r="G178" s="48"/>
+      <c r="H178" s="48"/>
+      <c r="I178" s="48"/>
+      <c r="J178" s="48"/>
+      <c r="K178" s="48"/>
+      <c r="L178" s="48"/>
+      <c r="M178" s="48"/>
+      <c r="N178" s="48"/>
+    </row>
+    <row r="179" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A179" s="48"/>
+      <c r="B179" s="48"/>
+      <c r="C179" s="48"/>
+      <c r="D179" s="48"/>
+      <c r="E179" s="48"/>
+      <c r="F179" s="48"/>
+      <c r="G179" s="48"/>
+      <c r="H179" s="48"/>
+      <c r="I179" s="48"/>
+      <c r="J179" s="48"/>
+      <c r="K179" s="48"/>
+      <c r="L179" s="48"/>
+      <c r="M179" s="48"/>
+      <c r="N179" s="48"/>
+    </row>
+    <row r="180" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A180" s="48"/>
+      <c r="B180" s="48"/>
+      <c r="C180" s="48"/>
+      <c r="D180" s="48"/>
+      <c r="E180" s="48"/>
+      <c r="F180" s="48"/>
+      <c r="G180" s="48"/>
+      <c r="H180" s="48"/>
+      <c r="I180" s="48"/>
+      <c r="J180" s="48"/>
+      <c r="K180" s="48"/>
+      <c r="L180" s="48"/>
+      <c r="M180" s="48"/>
+      <c r="N180" s="48"/>
+    </row>
+    <row r="181" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A181" s="48"/>
+      <c r="B181" s="48"/>
+      <c r="C181" s="48"/>
+      <c r="D181" s="48"/>
+      <c r="E181" s="48"/>
+      <c r="F181" s="48"/>
+      <c r="G181" s="48"/>
+      <c r="H181" s="48"/>
+      <c r="I181" s="48"/>
+      <c r="J181" s="48"/>
+      <c r="K181" s="48"/>
+      <c r="L181" s="48"/>
+      <c r="M181" s="48"/>
+      <c r="N181" s="48"/>
+    </row>
+    <row r="182" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A182" s="48"/>
+      <c r="B182" s="48"/>
+      <c r="C182" s="48"/>
+      <c r="D182" s="48"/>
+      <c r="E182" s="48"/>
+      <c r="F182" s="48"/>
+      <c r="G182" s="48"/>
+      <c r="H182" s="48"/>
+      <c r="I182" s="48"/>
+      <c r="J182" s="48"/>
+      <c r="K182" s="48"/>
+      <c r="L182" s="48"/>
+      <c r="M182" s="48"/>
+      <c r="N182" s="48"/>
+    </row>
+    <row r="183" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A183" s="48"/>
+      <c r="B183" s="48"/>
+      <c r="C183" s="48"/>
+      <c r="D183" s="48"/>
+      <c r="E183" s="48"/>
+      <c r="F183" s="48"/>
+      <c r="G183" s="48"/>
+      <c r="H183" s="48"/>
+      <c r="I183" s="48"/>
+      <c r="J183" s="48"/>
+      <c r="K183" s="48"/>
+      <c r="L183" s="48"/>
+      <c r="M183" s="48"/>
+      <c r="N183" s="48"/>
+    </row>
+    <row r="184" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A184" s="48"/>
+      <c r="B184" s="48"/>
+      <c r="C184" s="48"/>
+      <c r="D184" s="48"/>
+      <c r="E184" s="48"/>
+      <c r="F184" s="48"/>
+      <c r="G184" s="48"/>
+      <c r="H184" s="48"/>
+      <c r="I184" s="48"/>
+      <c r="J184" s="48"/>
+      <c r="K184" s="48"/>
+      <c r="L184" s="48"/>
+      <c r="M184" s="48"/>
+      <c r="N184" s="48"/>
+    </row>
+    <row r="185" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A185" s="48"/>
+      <c r="B185" s="48"/>
+      <c r="C185" s="48"/>
+      <c r="D185" s="48"/>
+      <c r="E185" s="48"/>
+      <c r="F185" s="48"/>
+      <c r="G185" s="48"/>
+      <c r="H185" s="48"/>
+      <c r="I185" s="48"/>
+      <c r="J185" s="48"/>
+      <c r="K185" s="48"/>
+      <c r="L185" s="48"/>
+      <c r="M185" s="48"/>
+      <c r="N185" s="48"/>
+    </row>
+    <row r="186" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A186" s="48"/>
+      <c r="B186" s="48"/>
+      <c r="C186" s="48"/>
+      <c r="D186" s="48"/>
+      <c r="E186" s="48"/>
+      <c r="F186" s="48"/>
+      <c r="G186" s="48"/>
+      <c r="H186" s="48"/>
+      <c r="I186" s="48"/>
+      <c r="J186" s="48"/>
+      <c r="K186" s="48"/>
+      <c r="L186" s="48"/>
+      <c r="M186" s="48"/>
+      <c r="N186" s="48"/>
+    </row>
+    <row r="187" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A187" s="48"/>
+      <c r="B187" s="48"/>
+      <c r="C187" s="48"/>
+      <c r="D187" s="48"/>
+      <c r="E187" s="48"/>
+      <c r="F187" s="48"/>
+      <c r="G187" s="48"/>
+      <c r="H187" s="48"/>
+      <c r="I187" s="48"/>
+      <c r="J187" s="48"/>
+      <c r="K187" s="48"/>
+      <c r="L187" s="48"/>
+      <c r="M187" s="48"/>
+      <c r="N187" s="48"/>
+    </row>
+    <row r="188" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A188" s="48"/>
+      <c r="B188" s="48"/>
+      <c r="C188" s="48"/>
+      <c r="D188" s="48"/>
+      <c r="E188" s="48"/>
+      <c r="F188" s="48"/>
+      <c r="G188" s="48"/>
+      <c r="H188" s="48"/>
+      <c r="I188" s="48"/>
+      <c r="J188" s="48"/>
+      <c r="K188" s="48"/>
+      <c r="L188" s="48"/>
+      <c r="M188" s="48"/>
+      <c r="N188" s="48"/>
+    </row>
+    <row r="189" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A189" s="48"/>
+      <c r="B189" s="48"/>
+      <c r="C189" s="48"/>
+      <c r="D189" s="48"/>
+      <c r="E189" s="48"/>
+      <c r="F189" s="48"/>
+      <c r="G189" s="48"/>
+      <c r="H189" s="48"/>
+      <c r="I189" s="48"/>
+      <c r="J189" s="48"/>
+      <c r="K189" s="48"/>
+      <c r="L189" s="48"/>
+      <c r="M189" s="48"/>
+      <c r="N189" s="48"/>
+    </row>
+    <row r="190" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A190" s="48"/>
+      <c r="B190" s="48"/>
+      <c r="C190" s="48"/>
+      <c r="D190" s="48"/>
+      <c r="E190" s="48"/>
+      <c r="F190" s="48"/>
+      <c r="G190" s="48"/>
+      <c r="H190" s="48"/>
+      <c r="I190" s="48"/>
+      <c r="J190" s="48"/>
+      <c r="K190" s="48"/>
+      <c r="L190" s="48"/>
+      <c r="M190" s="48"/>
+      <c r="N190" s="48"/>
+    </row>
+    <row r="191" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A191" s="48"/>
+      <c r="B191" s="48"/>
+      <c r="C191" s="48"/>
+      <c r="D191" s="48"/>
+      <c r="E191" s="48"/>
+      <c r="F191" s="48"/>
+      <c r="G191" s="48"/>
+      <c r="H191" s="48"/>
+      <c r="I191" s="48"/>
+      <c r="J191" s="48"/>
+      <c r="K191" s="48"/>
+      <c r="L191" s="48"/>
+      <c r="M191" s="48"/>
+      <c r="N191" s="48"/>
+    </row>
+    <row r="192" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A192" s="48"/>
+      <c r="B192" s="48"/>
+      <c r="C192" s="48"/>
+      <c r="D192" s="48"/>
+      <c r="E192" s="48"/>
+      <c r="F192" s="48"/>
+      <c r="G192" s="48"/>
+      <c r="H192" s="48"/>
+      <c r="I192" s="48"/>
+      <c r="J192" s="48"/>
+      <c r="K192" s="48"/>
+      <c r="L192" s="48"/>
+      <c r="M192" s="48"/>
+      <c r="N192" s="48"/>
+    </row>
+    <row r="193" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A193" s="48"/>
+      <c r="B193" s="48"/>
+      <c r="C193" s="48"/>
+      <c r="D193" s="48"/>
+      <c r="E193" s="48"/>
+      <c r="F193" s="48"/>
+      <c r="G193" s="48"/>
+      <c r="H193" s="48"/>
+      <c r="I193" s="48"/>
+      <c r="J193" s="48"/>
+      <c r="K193" s="48"/>
+      <c r="L193" s="48"/>
+      <c r="M193" s="48"/>
+      <c r="N193" s="48"/>
+    </row>
+    <row r="194" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A194" s="48"/>
+      <c r="B194" s="48"/>
+      <c r="C194" s="48"/>
+      <c r="D194" s="48"/>
+      <c r="E194" s="48"/>
+      <c r="F194" s="48"/>
+      <c r="G194" s="48"/>
+      <c r="H194" s="48"/>
+      <c r="I194" s="48"/>
+      <c r="J194" s="48"/>
+      <c r="K194" s="48"/>
+      <c r="L194" s="48"/>
+      <c r="M194" s="48"/>
+      <c r="N194" s="48"/>
+    </row>
+    <row r="195" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A195" s="48"/>
+      <c r="B195" s="48"/>
+      <c r="C195" s="48"/>
+      <c r="D195" s="48"/>
+      <c r="E195" s="48"/>
+      <c r="F195" s="48"/>
+      <c r="G195" s="48"/>
+      <c r="H195" s="48"/>
+      <c r="I195" s="48"/>
+      <c r="J195" s="48"/>
+      <c r="K195" s="48"/>
+      <c r="L195" s="48"/>
+      <c r="M195" s="48"/>
+      <c r="N195" s="48"/>
+    </row>
+    <row r="196" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A196" s="48"/>
+      <c r="B196" s="48"/>
+      <c r="C196" s="48"/>
+      <c r="D196" s="48"/>
+      <c r="E196" s="48"/>
+      <c r="F196" s="48"/>
+      <c r="G196" s="48"/>
+      <c r="H196" s="48"/>
+      <c r="I196" s="48"/>
+      <c r="J196" s="48"/>
+      <c r="K196" s="48"/>
+      <c r="L196" s="48"/>
+      <c r="M196" s="48"/>
+      <c r="N196" s="48"/>
+    </row>
+    <row r="197" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A197" s="48"/>
+      <c r="B197" s="48"/>
+      <c r="C197" s="48"/>
+      <c r="D197" s="48"/>
+      <c r="E197" s="48"/>
+      <c r="F197" s="48"/>
+      <c r="G197" s="48"/>
+      <c r="H197" s="48"/>
+      <c r="I197" s="48"/>
+      <c r="J197" s="48"/>
+      <c r="K197" s="48"/>
+      <c r="L197" s="48"/>
+      <c r="M197" s="48"/>
+      <c r="N197" s="48"/>
+    </row>
+    <row r="198" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A198" s="48"/>
+      <c r="B198" s="48"/>
+      <c r="C198" s="48"/>
+      <c r="D198" s="48"/>
+      <c r="E198" s="48"/>
+      <c r="F198" s="48"/>
+      <c r="G198" s="48"/>
+      <c r="H198" s="48"/>
+      <c r="I198" s="48"/>
+      <c r="J198" s="48"/>
+      <c r="K198" s="48"/>
+      <c r="L198" s="48"/>
+      <c r="M198" s="48"/>
+      <c r="N198" s="48"/>
+    </row>
+    <row r="199" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A199" s="48"/>
+      <c r="B199" s="48"/>
+      <c r="C199" s="48"/>
+      <c r="D199" s="48"/>
+      <c r="E199" s="48"/>
+      <c r="F199" s="48"/>
+      <c r="G199" s="48"/>
+      <c r="H199" s="48"/>
+      <c r="I199" s="48"/>
+      <c r="J199" s="48"/>
+      <c r="K199" s="48"/>
+      <c r="L199" s="48"/>
+      <c r="M199" s="48"/>
+      <c r="N199" s="48"/>
+    </row>
+    <row r="200" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A200" s="48"/>
+      <c r="B200" s="48"/>
+      <c r="C200" s="48"/>
+      <c r="D200" s="48"/>
+      <c r="E200" s="48"/>
+      <c r="F200" s="48"/>
+      <c r="G200" s="48"/>
+      <c r="H200" s="48"/>
+      <c r="I200" s="48"/>
+      <c r="J200" s="48"/>
+      <c r="K200" s="48"/>
+      <c r="L200" s="48"/>
+      <c r="M200" s="48"/>
+      <c r="N200" s="48"/>
+    </row>
+    <row r="201" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A201" s="48"/>
+      <c r="B201" s="48"/>
+      <c r="C201" s="48"/>
+      <c r="D201" s="48"/>
+      <c r="E201" s="48"/>
+      <c r="F201" s="48"/>
+      <c r="G201" s="48"/>
+      <c r="H201" s="48"/>
+      <c r="I201" s="48"/>
+      <c r="J201" s="48"/>
+      <c r="K201" s="48"/>
+      <c r="L201" s="48"/>
+      <c r="M201" s="48"/>
+      <c r="N201" s="48"/>
+    </row>
+    <row r="202" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A202" s="48"/>
+      <c r="B202" s="48"/>
+      <c r="C202" s="48"/>
+      <c r="D202" s="48"/>
+      <c r="E202" s="48"/>
+      <c r="F202" s="48"/>
+      <c r="G202" s="48"/>
+      <c r="H202" s="48"/>
+      <c r="I202" s="48"/>
+      <c r="J202" s="48"/>
+      <c r="K202" s="48"/>
+      <c r="L202" s="48"/>
+      <c r="M202" s="48"/>
+      <c r="N202" s="48"/>
+    </row>
+    <row r="203" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A203" s="48"/>
+      <c r="B203" s="48"/>
+      <c r="C203" s="48"/>
+      <c r="D203" s="48"/>
+      <c r="E203" s="48"/>
+      <c r="F203" s="48"/>
+      <c r="G203" s="48"/>
+      <c r="H203" s="48"/>
+      <c r="I203" s="48"/>
+      <c r="J203" s="48"/>
+      <c r="K203" s="48"/>
+      <c r="L203" s="48"/>
+      <c r="M203" s="48"/>
+      <c r="N203" s="48"/>
+    </row>
+    <row r="204" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A204" s="48"/>
+      <c r="B204" s="48"/>
+      <c r="C204" s="48"/>
+      <c r="D204" s="48"/>
+      <c r="E204" s="48"/>
+      <c r="F204" s="48"/>
+      <c r="G204" s="48"/>
+      <c r="H204" s="48"/>
+      <c r="I204" s="48"/>
+      <c r="J204" s="48"/>
+      <c r="K204" s="48"/>
+      <c r="L204" s="48"/>
+      <c r="M204" s="48"/>
+      <c r="N204" s="48"/>
+    </row>
+    <row r="205" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A205" s="48"/>
+      <c r="B205" s="48"/>
+      <c r="C205" s="48"/>
+      <c r="D205" s="48"/>
+      <c r="E205" s="48"/>
+      <c r="F205" s="48"/>
+      <c r="G205" s="48"/>
+      <c r="H205" s="48"/>
+      <c r="I205" s="48"/>
+      <c r="J205" s="48"/>
+      <c r="K205" s="48"/>
+      <c r="L205" s="48"/>
+      <c r="M205" s="48"/>
+      <c r="N205" s="48"/>
+    </row>
+    <row r="206" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A206" s="48"/>
+      <c r="B206" s="48"/>
+      <c r="C206" s="48"/>
+      <c r="D206" s="48"/>
+      <c r="E206" s="48"/>
+      <c r="F206" s="48"/>
+      <c r="G206" s="48"/>
+      <c r="H206" s="48"/>
+      <c r="I206" s="48"/>
+      <c r="J206" s="48"/>
+      <c r="K206" s="48"/>
+      <c r="L206" s="48"/>
+      <c r="M206" s="48"/>
+      <c r="N206" s="48"/>
+    </row>
+    <row r="207" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A207" s="48"/>
+      <c r="B207" s="48"/>
+      <c r="C207" s="48"/>
+      <c r="D207" s="48"/>
+      <c r="E207" s="48"/>
+      <c r="F207" s="48"/>
+      <c r="G207" s="48"/>
+      <c r="H207" s="48"/>
+      <c r="I207" s="48"/>
+      <c r="J207" s="48"/>
+      <c r="K207" s="48"/>
+      <c r="L207" s="48"/>
+      <c r="M207" s="48"/>
+      <c r="N207" s="48"/>
+    </row>
+    <row r="208" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A208" s="48"/>
+      <c r="B208" s="48"/>
+      <c r="C208" s="48"/>
+      <c r="D208" s="48"/>
+      <c r="E208" s="48"/>
+      <c r="F208" s="48"/>
+      <c r="G208" s="48"/>
+      <c r="H208" s="48"/>
+      <c r="I208" s="48"/>
+      <c r="J208" s="48"/>
+      <c r="K208" s="48"/>
+      <c r="L208" s="48"/>
+      <c r="M208" s="48"/>
+      <c r="N208" s="48"/>
+    </row>
+    <row r="209" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A209" s="48"/>
+      <c r="B209" s="48"/>
+      <c r="C209" s="48"/>
+      <c r="D209" s="48"/>
+      <c r="E209" s="48"/>
+      <c r="F209" s="48"/>
+      <c r="G209" s="48"/>
+      <c r="H209" s="48"/>
+      <c r="I209" s="48"/>
+      <c r="J209" s="48"/>
+      <c r="K209" s="48"/>
+      <c r="L209" s="48"/>
+      <c r="M209" s="48"/>
+      <c r="N209" s="48"/>
+    </row>
+    <row r="210" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A210" s="48"/>
+      <c r="B210" s="48"/>
+      <c r="C210" s="48"/>
+      <c r="D210" s="48"/>
+      <c r="E210" s="48"/>
+      <c r="F210" s="48"/>
+      <c r="G210" s="48"/>
+      <c r="H210" s="48"/>
+      <c r="I210" s="48"/>
+      <c r="J210" s="48"/>
+      <c r="K210" s="48"/>
+      <c r="L210" s="48"/>
+      <c r="M210" s="48"/>
+      <c r="N210" s="48"/>
+    </row>
+    <row r="211" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A211" s="48"/>
+      <c r="B211" s="48"/>
+      <c r="C211" s="48"/>
+      <c r="D211" s="48"/>
+      <c r="E211" s="48"/>
+      <c r="F211" s="48"/>
+      <c r="G211" s="48"/>
+      <c r="H211" s="48"/>
+      <c r="I211" s="48"/>
+      <c r="J211" s="48"/>
+      <c r="K211" s="48"/>
+      <c r="L211" s="48"/>
+      <c r="M211" s="48"/>
+      <c r="N211" s="48"/>
+    </row>
+    <row r="212" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A212" s="48"/>
+      <c r="B212" s="48"/>
+      <c r="C212" s="48"/>
+      <c r="D212" s="48"/>
+      <c r="E212" s="48"/>
+      <c r="F212" s="48"/>
+      <c r="G212" s="48"/>
+      <c r="H212" s="48"/>
+      <c r="I212" s="48"/>
+      <c r="J212" s="48"/>
+      <c r="K212" s="48"/>
+      <c r="L212" s="48"/>
+      <c r="M212" s="48"/>
+      <c r="N212" s="48"/>
+    </row>
+    <row r="213" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A213" s="48"/>
+      <c r="B213" s="48"/>
+      <c r="C213" s="48"/>
+      <c r="D213" s="48"/>
+      <c r="E213" s="48"/>
+      <c r="F213" s="48"/>
+      <c r="G213" s="48"/>
+      <c r="H213" s="48"/>
+      <c r="I213" s="48"/>
+      <c r="J213" s="48"/>
+      <c r="K213" s="48"/>
+      <c r="L213" s="48"/>
+      <c r="M213" s="48"/>
+      <c r="N213" s="48"/>
+    </row>
+    <row r="214" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A214" s="48"/>
+      <c r="B214" s="48"/>
+      <c r="C214" s="48"/>
+      <c r="D214" s="48"/>
+      <c r="E214" s="48"/>
+      <c r="F214" s="48"/>
+      <c r="G214" s="48"/>
+      <c r="H214" s="48"/>
+      <c r="I214" s="48"/>
+      <c r="J214" s="48"/>
+      <c r="K214" s="48"/>
+      <c r="L214" s="48"/>
+      <c r="M214" s="48"/>
+      <c r="N214" s="48"/>
+    </row>
+    <row r="215" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A215" s="48"/>
+      <c r="B215" s="48"/>
+      <c r="C215" s="48"/>
+      <c r="D215" s="48"/>
+      <c r="E215" s="48"/>
+      <c r="F215" s="48"/>
+      <c r="G215" s="48"/>
+      <c r="H215" s="48"/>
+      <c r="I215" s="48"/>
+      <c r="J215" s="48"/>
+      <c r="K215" s="48"/>
+      <c r="L215" s="48"/>
+      <c r="M215" s="48"/>
+      <c r="N215" s="48"/>
+    </row>
+    <row r="216" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A216" s="48"/>
+      <c r="B216" s="48"/>
+      <c r="C216" s="48"/>
+      <c r="D216" s="48"/>
+      <c r="E216" s="48"/>
+      <c r="F216" s="48"/>
+      <c r="G216" s="48"/>
+      <c r="H216" s="48"/>
+      <c r="I216" s="48"/>
+      <c r="J216" s="48"/>
+      <c r="K216" s="48"/>
+      <c r="L216" s="48"/>
+      <c r="M216" s="48"/>
+      <c r="N216" s="48"/>
+    </row>
+    <row r="217" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A217" s="48"/>
+      <c r="B217" s="48"/>
+      <c r="C217" s="48"/>
+      <c r="D217" s="48"/>
+      <c r="E217" s="48"/>
+      <c r="F217" s="48"/>
+      <c r="G217" s="48"/>
+      <c r="H217" s="48"/>
+      <c r="I217" s="48"/>
+      <c r="J217" s="48"/>
+      <c r="K217" s="48"/>
+      <c r="L217" s="48"/>
+      <c r="M217" s="48"/>
+      <c r="N217" s="48"/>
+    </row>
+    <row r="218" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A218" s="48"/>
+      <c r="B218" s="48"/>
+      <c r="C218" s="48"/>
+      <c r="D218" s="48"/>
+      <c r="E218" s="48"/>
+      <c r="F218" s="48"/>
+      <c r="G218" s="48"/>
+      <c r="H218" s="48"/>
+      <c r="I218" s="48"/>
+      <c r="J218" s="48"/>
+      <c r="K218" s="48"/>
+      <c r="L218" s="48"/>
+      <c r="M218" s="48"/>
+      <c r="N218" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="135">
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="D4:G5"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="A8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:H10"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="A35:M37"/>
+    <mergeCell ref="A34:M34"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="A32:B32"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H4:J5">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$D$4="Oui"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:N5">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$D$4="Oui"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F32 I11:I32 L11:L32 M11:M31" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>"Oui,Non"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="2.46875" customWidth="1"/>
+    <col min="1" max="1" width="2.41015625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -1894,17 +5794,17 @@
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1"/>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="78"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="102"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -2587,11 +6487,15 @@
     </row>
     <row r="27" spans="1:11" s="3" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
-      <c r="B27" s="34"/>
+      <c r="B27" s="34">
+        <v>1799</v>
+      </c>
       <c r="C27" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="35"/>
+      <c r="D27" s="35" t="s">
+        <v>56</v>
+      </c>
       <c r="E27" s="34"/>
       <c r="F27" s="36"/>
       <c r="G27" s="37"/>
@@ -2606,30 +6510,30 @@
     </row>
     <row r="28" spans="1:11" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="1"/>
-      <c r="B28" s="79" t="s">
+      <c r="B28" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="79"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="103"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" s="3" customFormat="1" ht="14.35" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:11" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" s="1"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="79"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="103"/>
       <c r="K29" s="1"/>
     </row>
   </sheetData>
@@ -2640,728 +6544,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64483747-C26D-4C0F-AFFB-88811BD7ECB0}">
-  <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:L37"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H32" sqref="A7:H32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A1" s="73"/>
-      <c r="B1" s="73"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="75"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A2" s="94" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="94" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="94"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
-    </row>
-    <row r="3" spans="1:12" ht="27.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="95" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="96" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="40"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="40"/>
-    </row>
-    <row r="6" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="40"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A7" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="84" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="87" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="87" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="40"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A8" s="82"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="45">
-        <f>COUNT(G11:G32)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="46">
-        <f>COUNTIF(H11:H32,"=oui")</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="39"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="47">
-        <f>G8</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="47">
-        <f>H8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A9" s="82"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="90" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40"/>
-    </row>
-    <row r="10" spans="1:12" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="83"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="40"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A11" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="49">
-        <f>VLOOKUP(A11, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="54" t="str">
-        <f>IF(OR(E11="",C11=""),"",IF(ISERROR(VLOOKUP(A11,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E11)=TRUE,SUBSTITUTE(E11,"&lt;","",1)*1,E11)&gt;VLOOKUP(A11,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C11)=TRUE,SUBSTITUTE(C11,"&lt;","",1)*1,C11)&gt;VLOOKUP(A11,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C11)=TRUE,SUBSTITUTE(C11,"&lt;","",1)*1,C11)-((IF(ISTEXT(C11)=TRUE,SUBSTITUTE(C11,"&lt;","",1)*1,C11)+IF(ISTEXT(E11)=TRUE,SUBSTITUTE(E11,"&lt;","",1)*1,E11))/2))/((IF(ISTEXT(C11)=TRUE,SUBSTITUTE(C11,"&lt;","",1)*1,C11)+IF(ISTEXT(E11)=TRUE,SUBSTITUTE(E11,"&lt;","",1),E11))/2),"-")))</f>
-        <v/>
-      </c>
-      <c r="H11" s="55"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="40"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A12" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="49">
-        <f>VLOOKUP(A12, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
-        <v>30</v>
-      </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="54" t="str">
-        <f>IF(OR(E12="",C12=""),"",IF(ISERROR(VLOOKUP(A12,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E12)=TRUE,SUBSTITUTE(E12,"&lt;","",1)*1,E12)&gt;VLOOKUP(A12,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C12)=TRUE,SUBSTITUTE(C12,"&lt;","",1)*1,C12)&gt;VLOOKUP(A12,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C12)=TRUE,SUBSTITUTE(C12,"&lt;","",1)*1,C12)-((IF(ISTEXT(C12)=TRUE,SUBSTITUTE(C12,"&lt;","",1)*1,C12)+IF(ISTEXT(E12)=TRUE,SUBSTITUTE(E12,"&lt;","",1)*1,E12))/2))/((IF(ISTEXT(C12)=TRUE,SUBSTITUTE(C12,"&lt;","",1)*1,C12)+IF(ISTEXT(E12)=TRUE,SUBSTITUTE(E12,"&lt;","",1),E12))/2),"-")))</f>
-        <v/>
-      </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="40"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A13" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="49">
-        <f>VLOOKUP(A13, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
-        <v>10</v>
-      </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="54" t="str">
-        <f>IF(OR(E13="",C13=""),"",IF(ISERROR(VLOOKUP(A13,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E13)=TRUE,SUBSTITUTE(E13,"&lt;","",1)*1,E13)&gt;VLOOKUP(A13,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C13)=TRUE,SUBSTITUTE(C13,"&lt;","",1)*1,C13)&gt;VLOOKUP(A13,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C13)=TRUE,SUBSTITUTE(C13,"&lt;","",1)*1,C13)-((IF(ISTEXT(C13)=TRUE,SUBSTITUTE(C13,"&lt;","",1)*1,C13)+IF(ISTEXT(E13)=TRUE,SUBSTITUTE(E13,"&lt;","",1)*1,E13))/2))/((IF(ISTEXT(C13)=TRUE,SUBSTITUTE(C13,"&lt;","",1)*1,C13)+IF(ISTEXT(E13)=TRUE,SUBSTITUTE(E13,"&lt;","",1),E13))/2),"-")))</f>
-        <v/>
-      </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="40"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A14" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="49">
-        <f>VLOOKUP(A14, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="54" t="str">
-        <f>IF(OR(E14="",C14=""),"",IF(ISERROR(VLOOKUP(A14,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E14)=TRUE,SUBSTITUTE(E14,"&lt;","",1)*1,E14)&gt;VLOOKUP(A14,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C14)=TRUE,SUBSTITUTE(C14,"&lt;","",1)*1,C14)&gt;VLOOKUP(A14,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C14)=TRUE,SUBSTITUTE(C14,"&lt;","",1)*1,C14)-((IF(ISTEXT(C14)=TRUE,SUBSTITUTE(C14,"&lt;","",1)*1,C14)+IF(ISTEXT(E14)=TRUE,SUBSTITUTE(E14,"&lt;","",1)*1,E14))/2))/((IF(ISTEXT(C14)=TRUE,SUBSTITUTE(C14,"&lt;","",1)*1,C14)+IF(ISTEXT(E14)=TRUE,SUBSTITUTE(E14,"&lt;","",1),E14))/2),"-")))</f>
-        <v/>
-      </c>
-      <c r="H14" s="59"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="40"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A15" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="49">
-        <f>VLOOKUP(A15, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
-        <v>0.5</v>
-      </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="54" t="str">
-        <f>IF(OR(E15="",C15=""),"",IF(ISERROR(VLOOKUP(A15,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E15)=TRUE,SUBSTITUTE(E15,"&lt;","",1)*1,E15)&gt;VLOOKUP(A15,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C15)=TRUE,SUBSTITUTE(C15,"&lt;","",1)*1,C15)&gt;VLOOKUP(A15,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C15)=TRUE,SUBSTITUTE(C15,"&lt;","",1)*1,C15)-((IF(ISTEXT(C15)=TRUE,SUBSTITUTE(C15,"&lt;","",1)*1,C15)+IF(ISTEXT(E15)=TRUE,SUBSTITUTE(E15,"&lt;","",1)*1,E15))/2))/((IF(ISTEXT(C15)=TRUE,SUBSTITUTE(C15,"&lt;","",1)*1,C15)+IF(ISTEXT(E15)=TRUE,SUBSTITUTE(E15,"&lt;","",1),E15))/2),"-")))</f>
-        <v/>
-      </c>
-      <c r="H15" s="59"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="40"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A16" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="49">
-        <f>VLOOKUP(A16, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="54" t="str">
-        <f>IF(OR(E16="",C16=""),"",IF(ISERROR(VLOOKUP(A16,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E16)=TRUE,SUBSTITUTE(E16,"&lt;","",1)*1,E16)&gt;VLOOKUP(A16,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C16)=TRUE,SUBSTITUTE(C16,"&lt;","",1)*1,C16)&gt;VLOOKUP(A16,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C16)=TRUE,SUBSTITUTE(C16,"&lt;","",1)*1,C16)-((IF(ISTEXT(C16)=TRUE,SUBSTITUTE(C16,"&lt;","",1)*1,C16)+IF(ISTEXT(E16)=TRUE,SUBSTITUTE(E16,"&lt;","",1)*1,E16))/2))/((IF(ISTEXT(C16)=TRUE,SUBSTITUTE(C16,"&lt;","",1)*1,C16)+IF(ISTEXT(E16)=TRUE,SUBSTITUTE(E16,"&lt;","",1),E16))/2),"-")))</f>
-        <v/>
-      </c>
-      <c r="H16" s="59"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A17" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="49">
-        <f>VLOOKUP(A17, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
-        <v>0.5</v>
-      </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="54" t="str">
-        <f>IF(OR(E17="",C17=""),"",IF(ISERROR(VLOOKUP(A17,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E17)=TRUE,SUBSTITUTE(E17,"&lt;","",1)*1,E17)&gt;VLOOKUP(A17,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C17)=TRUE,SUBSTITUTE(C17,"&lt;","",1)*1,C17)&gt;VLOOKUP(A17,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C17)=TRUE,SUBSTITUTE(C17,"&lt;","",1)*1,C17)-((IF(ISTEXT(C17)=TRUE,SUBSTITUTE(C17,"&lt;","",1)*1,C17)+IF(ISTEXT(E17)=TRUE,SUBSTITUTE(E17,"&lt;","",1)*1,E17))/2))/((IF(ISTEXT(C17)=TRUE,SUBSTITUTE(C17,"&lt;","",1)*1,C17)+IF(ISTEXT(E17)=TRUE,SUBSTITUTE(E17,"&lt;","",1),E17))/2),"-")))</f>
-        <v/>
-      </c>
-      <c r="H17" s="59"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="40"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A18" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="49">
-        <f>VLOOKUP(A18, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
-        <v>0.05</v>
-      </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="54" t="str">
-        <f>IF(OR(E18="",C18=""),"",IF(ISERROR(VLOOKUP(A18,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E18)=TRUE,SUBSTITUTE(E18,"&lt;","",1)*1,E18)&gt;VLOOKUP(A18,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C18)=TRUE,SUBSTITUTE(C18,"&lt;","",1)*1,C18)&gt;VLOOKUP(A18,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C18)=TRUE,SUBSTITUTE(C18,"&lt;","",1)*1,C18)-((IF(ISTEXT(C18)=TRUE,SUBSTITUTE(C18,"&lt;","",1)*1,C18)+IF(ISTEXT(E18)=TRUE,SUBSTITUTE(E18,"&lt;","",1)*1,E18))/2))/((IF(ISTEXT(C18)=TRUE,SUBSTITUTE(C18,"&lt;","",1)*1,C18)+IF(ISTEXT(E18)=TRUE,SUBSTITUTE(E18,"&lt;","",1),E18))/2),"-")))</f>
-        <v/>
-      </c>
-      <c r="H18" s="59"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="40"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A19" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="49">
-        <f>VLOOKUP(A19, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="54" t="str">
-        <f>IF(OR(E19="",C19=""),"",IF(ISERROR(VLOOKUP(A19,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E19)=TRUE,SUBSTITUTE(E19,"&lt;","",1)*1,E19)&gt;VLOOKUP(A19,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C19)=TRUE,SUBSTITUTE(C19,"&lt;","",1)*1,C19)&gt;VLOOKUP(A19,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C19)=TRUE,SUBSTITUTE(C19,"&lt;","",1)*1,C19)-((IF(ISTEXT(C19)=TRUE,SUBSTITUTE(C19,"&lt;","",1)*1,C19)+IF(ISTEXT(E19)=TRUE,SUBSTITUTE(E19,"&lt;","",1)*1,E19))/2))/((IF(ISTEXT(C19)=TRUE,SUBSTITUTE(C19,"&lt;","",1)*1,C19)+IF(ISTEXT(E19)=TRUE,SUBSTITUTE(E19,"&lt;","",1),E19))/2),"-")))</f>
-        <v/>
-      </c>
-      <c r="H19" s="59"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="40"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A20" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="49">
-        <f>VLOOKUP(A20, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
-        <v>0.05</v>
-      </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="54" t="str">
-        <f>IF(OR(E20="",C20=""),"",IF(ISERROR(VLOOKUP(A20,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E20)=TRUE,SUBSTITUTE(E20,"&lt;","",1)*1,E20)&gt;VLOOKUP(A20,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C20)=TRUE,SUBSTITUTE(C20,"&lt;","",1)*1,C20)&gt;VLOOKUP(A20,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C20)=TRUE,SUBSTITUTE(C20,"&lt;","",1)*1,C20)-((IF(ISTEXT(C20)=TRUE,SUBSTITUTE(C20,"&lt;","",1)*1,C20)+IF(ISTEXT(E20)=TRUE,SUBSTITUTE(E20,"&lt;","",1)*1,E20))/2))/((IF(ISTEXT(C20)=TRUE,SUBSTITUTE(C20,"&lt;","",1)*1,C20)+IF(ISTEXT(E20)=TRUE,SUBSTITUTE(E20,"&lt;","",1),E20))/2),"-")))</f>
-        <v/>
-      </c>
-      <c r="H20" s="59"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="40"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A21" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="49">
-        <f>VLOOKUP(A21, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C21" s="60"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="54" t="str">
-        <f>IF(OR(E21="",C21=""),"",IF(ISERROR(VLOOKUP(A21,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E21)=TRUE,SUBSTITUTE(E21,"&lt;","",1)*1,E21)&gt;VLOOKUP(A21,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C21)=TRUE,SUBSTITUTE(C21,"&lt;","",1)*1,C21)&gt;VLOOKUP(A21,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C21)=TRUE,SUBSTITUTE(C21,"&lt;","",1)*1,C21)-((IF(ISTEXT(C21)=TRUE,SUBSTITUTE(C21,"&lt;","",1)*1,C21)+IF(ISTEXT(E21)=TRUE,SUBSTITUTE(E21,"&lt;","",1)*1,E21))/2))/((IF(ISTEXT(C21)=TRUE,SUBSTITUTE(C21,"&lt;","",1)*1,C21)+IF(ISTEXT(E21)=TRUE,SUBSTITUTE(E21,"&lt;","",1),E21))/2),"-")))</f>
-        <v/>
-      </c>
-      <c r="H21" s="59"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="40"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A22" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="49">
-        <f>VLOOKUP(A22, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
-        <v>1E-3</v>
-      </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="54" t="str">
-        <f>IF(OR(E22="",C22=""),"",IF(ISERROR(VLOOKUP(A22,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E22)=TRUE,SUBSTITUTE(E22,"&lt;","",1)*1,E22)&gt;VLOOKUP(A22,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C22)=TRUE,SUBSTITUTE(C22,"&lt;","",1)*1,C22)&gt;VLOOKUP(A22,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C22)=TRUE,SUBSTITUTE(C22,"&lt;","",1)*1,C22)-((IF(ISTEXT(C22)=TRUE,SUBSTITUTE(C22,"&lt;","",1)*1,C22)+IF(ISTEXT(E22)=TRUE,SUBSTITUTE(E22,"&lt;","",1)*1,E22))/2))/((IF(ISTEXT(C22)=TRUE,SUBSTITUTE(C22,"&lt;","",1)*1,C22)+IF(ISTEXT(E22)=TRUE,SUBSTITUTE(E22,"&lt;","",1),E22))/2),"-")))</f>
-        <v/>
-      </c>
-      <c r="H22" s="59"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="40"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A23" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="49">
-        <f>VLOOKUP(A23, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="54" t="str">
-        <f>IF(OR(E23="",C23=""),"",IF(ISERROR(VLOOKUP(A23,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E23)=TRUE,SUBSTITUTE(E23,"&lt;","",1)*1,E23)&gt;VLOOKUP(A23,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C23)=TRUE,SUBSTITUTE(C23,"&lt;","",1)*1,C23)&gt;VLOOKUP(A23,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C23)=TRUE,SUBSTITUTE(C23,"&lt;","",1)*1,C23)-((IF(ISTEXT(C23)=TRUE,SUBSTITUTE(C23,"&lt;","",1)*1,C23)+IF(ISTEXT(E23)=TRUE,SUBSTITUTE(E23,"&lt;","",1)*1,E23))/2))/((IF(ISTEXT(C23)=TRUE,SUBSTITUTE(C23,"&lt;","",1)*1,C23)+IF(ISTEXT(E23)=TRUE,SUBSTITUTE(E23,"&lt;","",1),E23))/2),"-")))</f>
-        <v/>
-      </c>
-      <c r="H23" s="59"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="40"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A24" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="49">
-        <f>VLOOKUP(A24, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="54" t="str">
-        <f>IF(OR(E24="",C24=""),"",IF(ISERROR(VLOOKUP(A24,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E24)=TRUE,SUBSTITUTE(E24,"&lt;","",1)*1,E24)&gt;VLOOKUP(A24,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C24)=TRUE,SUBSTITUTE(C24,"&lt;","",1)*1,C24)&gt;VLOOKUP(A24,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C24)=TRUE,SUBSTITUTE(C24,"&lt;","",1)*1,C24)-((IF(ISTEXT(C24)=TRUE,SUBSTITUTE(C24,"&lt;","",1)*1,C24)+IF(ISTEXT(E24)=TRUE,SUBSTITUTE(E24,"&lt;","",1)*1,E24))/2))/((IF(ISTEXT(C24)=TRUE,SUBSTITUTE(C24,"&lt;","",1)*1,C24)+IF(ISTEXT(E24)=TRUE,SUBSTITUTE(E24,"&lt;","",1),E24))/2),"-")))</f>
-        <v/>
-      </c>
-      <c r="H24" s="59"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="40"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A25" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="49">
-        <f>VLOOKUP(A25, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="54" t="str">
-        <f>IF(OR(E25="",C25=""),"",IF(ISERROR(VLOOKUP(A25,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E25)=TRUE,SUBSTITUTE(E25,"&lt;","",1)*1,E25)&gt;VLOOKUP(A25,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C25)=TRUE,SUBSTITUTE(C25,"&lt;","",1)*1,C25)&gt;VLOOKUP(A25,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C25)=TRUE,SUBSTITUTE(C25,"&lt;","",1)*1,C25)-((IF(ISTEXT(C25)=TRUE,SUBSTITUTE(C25,"&lt;","",1)*1,C25)+IF(ISTEXT(E25)=TRUE,SUBSTITUTE(E25,"&lt;","",1)*1,E25))/2))/((IF(ISTEXT(C25)=TRUE,SUBSTITUTE(C25,"&lt;","",1)*1,C25)+IF(ISTEXT(E25)=TRUE,SUBSTITUTE(E25,"&lt;","",1),E25))/2),"-")))</f>
-        <v/>
-      </c>
-      <c r="H25" s="59"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="40"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A26" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="49">
-        <f>VLOOKUP(A26, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C26" s="64"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="54" t="str">
-        <f>IF(OR(E26="",C26=""),"",IF(ISERROR(VLOOKUP(A26,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E26)=TRUE,SUBSTITUTE(E26,"&lt;","",1)*1,E26)&gt;VLOOKUP(A26,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C26)=TRUE,SUBSTITUTE(C26,"&lt;","",1)*1,C26)&gt;VLOOKUP(A26,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C26)=TRUE,SUBSTITUTE(C26,"&lt;","",1)*1,C26)-((IF(ISTEXT(C26)=TRUE,SUBSTITUTE(C26,"&lt;","",1)*1,C26)+IF(ISTEXT(E26)=TRUE,SUBSTITUTE(E26,"&lt;","",1)*1,E26))/2))/((IF(ISTEXT(C26)=TRUE,SUBSTITUTE(C26,"&lt;","",1)*1,C26)+IF(ISTEXT(E26)=TRUE,SUBSTITUTE(E26,"&lt;","",1),E26))/2),"-")))</f>
-        <v/>
-      </c>
-      <c r="H26" s="59"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="40"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A27" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="49">
-        <f>VLOOKUP(A27, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
-        <v>2E-3</v>
-      </c>
-      <c r="C27" s="64"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="54" t="str">
-        <f>IF(OR(E27="",C27=""),"",IF(ISERROR(VLOOKUP(A27,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E27)=TRUE,SUBSTITUTE(E27,"&lt;","",1)*1,E27)&gt;VLOOKUP(A27,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C27)=TRUE,SUBSTITUTE(C27,"&lt;","",1)*1,C27)&gt;VLOOKUP(A27,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C27)=TRUE,SUBSTITUTE(C27,"&lt;","",1)*1,C27)-((IF(ISTEXT(C27)=TRUE,SUBSTITUTE(C27,"&lt;","",1)*1,C27)+IF(ISTEXT(E27)=TRUE,SUBSTITUTE(E27,"&lt;","",1)*1,E27))/2))/((IF(ISTEXT(C27)=TRUE,SUBSTITUTE(C27,"&lt;","",1)*1,C27)+IF(ISTEXT(E27)=TRUE,SUBSTITUTE(E27,"&lt;","",1),E27))/2),"-")))</f>
-        <v/>
-      </c>
-      <c r="H27" s="59"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="40"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A28" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="49">
-        <f>VLOOKUP(A28, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C28" s="64"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="54" t="str">
-        <f>IF(OR(E28="",C28=""),"",IF(ISERROR(VLOOKUP(A28,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E28)=TRUE,SUBSTITUTE(E28,"&lt;","",1)*1,E28)&gt;VLOOKUP(A28,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C28)=TRUE,SUBSTITUTE(C28,"&lt;","",1)*1,C28)&gt;VLOOKUP(A28,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C28)=TRUE,SUBSTITUTE(C28,"&lt;","",1)*1,C28)-((IF(ISTEXT(C28)=TRUE,SUBSTITUTE(C28,"&lt;","",1)*1,C28)+IF(ISTEXT(E28)=TRUE,SUBSTITUTE(E28,"&lt;","",1)*1,E28))/2))/((IF(ISTEXT(C28)=TRUE,SUBSTITUTE(C28,"&lt;","",1)*1,C28)+IF(ISTEXT(E28)=TRUE,SUBSTITUTE(E28,"&lt;","",1),E28))/2),"-")))</f>
-        <v/>
-      </c>
-      <c r="H28" s="59"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="40"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A29" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="49">
-        <f>VLOOKUP(A29, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
-        <v>0.01</v>
-      </c>
-      <c r="C29" s="64"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="54" t="str">
-        <f>IF(OR(E29="",C29=""),"",IF(ISERROR(VLOOKUP(A29,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E29)=TRUE,SUBSTITUTE(E29,"&lt;","",1)*1,E29)&gt;VLOOKUP(A29,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C29)=TRUE,SUBSTITUTE(C29,"&lt;","",1)*1,C29)&gt;VLOOKUP(A29,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C29)=TRUE,SUBSTITUTE(C29,"&lt;","",1)*1,C29)-((IF(ISTEXT(C29)=TRUE,SUBSTITUTE(C29,"&lt;","",1)*1,C29)+IF(ISTEXT(E29)=TRUE,SUBSTITUTE(E29,"&lt;","",1)*1,E29))/2))/((IF(ISTEXT(C29)=TRUE,SUBSTITUTE(C29,"&lt;","",1)*1,C29)+IF(ISTEXT(E29)=TRUE,SUBSTITUTE(E29,"&lt;","",1),E29))/2),"-")))</f>
-        <v/>
-      </c>
-      <c r="H29" s="59"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A30" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="49">
-        <f>VLOOKUP(A30, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
-        <v>0.3</v>
-      </c>
-      <c r="C30" s="64"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="54" t="str">
-        <f>IF(OR(E30="",C30=""),"",IF(ISERROR(VLOOKUP(A30,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E30)=TRUE,SUBSTITUTE(E30,"&lt;","",1)*1,E30)&gt;VLOOKUP(A30,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C30)=TRUE,SUBSTITUTE(C30,"&lt;","",1)*1,C30)&gt;VLOOKUP(A30,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C30)=TRUE,SUBSTITUTE(C30,"&lt;","",1)*1,C30)-((IF(ISTEXT(C30)=TRUE,SUBSTITUTE(C30,"&lt;","",1)*1,C30)+IF(ISTEXT(E30)=TRUE,SUBSTITUTE(E30,"&lt;","",1)*1,E30))/2))/((IF(ISTEXT(C30)=TRUE,SUBSTITUTE(C30,"&lt;","",1)*1,C30)+IF(ISTEXT(E30)=TRUE,SUBSTITUTE(E30,"&lt;","",1),E30))/2),"-")))</f>
-        <v/>
-      </c>
-      <c r="H30" s="59"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="40"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A31" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="49">
-        <f>VLOOKUP(A31, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="C31" s="64"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="54" t="str">
-        <f>IF(OR(E31="",C31=""),"",IF(ISERROR(VLOOKUP(A31,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E31)=TRUE,SUBSTITUTE(E31,"&lt;","",1)*1,E31)&gt;VLOOKUP(A31,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C31)=TRUE,SUBSTITUTE(C31,"&lt;","",1)*1,C31)&gt;VLOOKUP(A31,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C31)=TRUE,SUBSTITUTE(C31,"&lt;","",1)*1,C31)-((IF(ISTEXT(C31)=TRUE,SUBSTITUTE(C31,"&lt;","",1)*1,C31)+IF(ISTEXT(E31)=TRUE,SUBSTITUTE(E31,"&lt;","",1)*1,E31))/2))/((IF(ISTEXT(C31)=TRUE,SUBSTITUTE(C31,"&lt;","",1)*1,C31)+IF(ISTEXT(E31)=TRUE,SUBSTITUTE(E31,"&lt;","",1),E31))/2),"-")))</f>
-        <v/>
-      </c>
-      <c r="H31" s="59"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="40"/>
-    </row>
-    <row r="32" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="98" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="99">
-        <f>VLOOKUP(A32, 'SeuilsComparaison-EMT'!$C$5:$E$28, 3, FALSE)</f>
-        <v>5</v>
-      </c>
-      <c r="C32" s="68"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="100" t="str">
-        <f>IF(OR(E32="",C32=""),"",IF(ISERROR(VLOOKUP(A32,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)),"-",IF(OR(IF(ISTEXT(E32)=TRUE,SUBSTITUTE(E32,"&lt;","",1)*1,E32)&gt;VLOOKUP(A32,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE),IF(ISTEXT(C32)=TRUE,SUBSTITUTE(C32,"&lt;","",1)*1,C32)&gt;VLOOKUP(A32,'SeuilsComparaison-EMT'!$C$5:$J$25,4,FALSE)=TRUE),(IF(ISTEXT(C32)=TRUE,SUBSTITUTE(C32,"&lt;","",1)*1,C32)-((IF(ISTEXT(C32)=TRUE,SUBSTITUTE(C32,"&lt;","",1)*1,C32)+IF(ISTEXT(E32)=TRUE,SUBSTITUTE(E32,"&lt;","",1)*1,E32))/2))/((IF(ISTEXT(C32)=TRUE,SUBSTITUTE(C32,"&lt;","",1)*1,C32)+IF(ISTEXT(E32)=TRUE,SUBSTITUTE(E32,"&lt;","",1),E32))/2),"-")))</f>
-        <v/>
-      </c>
-      <c r="H32" s="72"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="40"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="40"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A34" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="40"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A35" s="80"/>
-      <c r="B35" s="80"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="80"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="40"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A36" s="80"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="40"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A37" s="39"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="40"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A35:H36"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-  </mergeCells>
-  <conditionalFormatting sqref="F11:F32">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11:G32">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
-      <formula>"non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showErrorMessage="1" prompt="Concerne la DCO méthode NFT 90101" sqref="C14" xr:uid="{BDA0E228-6036-4EA1-97C3-68B0691A2A50}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32 F11:F32 H11:H32" xr:uid="{2962A310-FB05-49AD-8188-F6FBC158B6D8}">
-      <formula1>"Oui,Non"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Concerne la DCO méthode NFT 90101" sqref="C13 E14" xr:uid="{CE7F6829-4B27-4F3B-AAE6-7EDA37258785}"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>